--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="147">
   <si>
     <t>Месяц</t>
   </si>
@@ -467,6 +467,9 @@
   <si>
     <t>01.10.2022</t>
   </si>
+  <si>
+    <t>01.11.2022</t>
+  </si>
 </sst>
 </file>
 
@@ -850,10 +853,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1003"/>
+  <dimension ref="A1:H1005"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A962" workbookViewId="0">
-      <selection activeCell="A993" sqref="A993:G999"/>
+      <selection activeCell="H1006" sqref="H1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25155,10 +25158,162 @@
         <v>4231000</v>
       </c>
     </row>
-    <row r="1000" spans="1:8" ht="11.25" x14ac:dyDescent="0.2"/>
-    <row r="1001" spans="1:8" ht="11.25" x14ac:dyDescent="0.2"/>
-    <row r="1002" spans="1:8" ht="11.25" x14ac:dyDescent="0.2"/>
-    <row r="1003" spans="1:8" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="1000" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1000" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1000" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1000" s="8">
+        <v>47910</v>
+      </c>
+      <c r="D1000" s="9">
+        <v>75</v>
+      </c>
+      <c r="E1000" s="10">
+        <v>2435.69</v>
+      </c>
+      <c r="F1000" s="9">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="G1000" s="9">
+        <v>26.5</v>
+      </c>
+      <c r="H1000" s="11">
+        <v>3241000</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1001" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1001" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1001" s="8">
+        <v>63712</v>
+      </c>
+      <c r="D1001" s="9">
+        <v>96.5</v>
+      </c>
+      <c r="E1001" s="10">
+        <v>2592.0300000000002</v>
+      </c>
+      <c r="F1001" s="9">
+        <v>24.58</v>
+      </c>
+      <c r="G1001" s="9">
+        <v>34.17</v>
+      </c>
+      <c r="H1001" s="11">
+        <v>3241000</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1002" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1002" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1002" s="8">
+        <v>7390</v>
+      </c>
+      <c r="D1002" s="9">
+        <v>54</v>
+      </c>
+      <c r="E1002" s="9">
+        <v>479.25</v>
+      </c>
+      <c r="F1002" s="9">
+        <v>15.42</v>
+      </c>
+      <c r="G1002" s="9">
+        <v>20.5</v>
+      </c>
+      <c r="H1002" s="11">
+        <v>3241000</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1003" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1003" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1003" s="8">
+        <v>196637</v>
+      </c>
+      <c r="D1003" s="9">
+        <v>352.34</v>
+      </c>
+      <c r="E1003" s="10">
+        <v>3422.15</v>
+      </c>
+      <c r="F1003" s="9">
+        <v>57.46</v>
+      </c>
+      <c r="G1003" s="9">
+        <v>74.959999999999994</v>
+      </c>
+      <c r="H1003" s="11">
+        <v>3241000</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1004" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1004" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1004" s="8">
+        <v>197451</v>
+      </c>
+      <c r="D1004" s="9">
+        <v>369.92</v>
+      </c>
+      <c r="E1004" s="10">
+        <v>3301.3</v>
+      </c>
+      <c r="F1004" s="9">
+        <v>59.81</v>
+      </c>
+      <c r="G1004" s="9">
+        <v>78.48</v>
+      </c>
+      <c r="H1004" s="11">
+        <v>3241000</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1005" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1005" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1005" s="8">
+        <v>19944</v>
+      </c>
+      <c r="D1005" s="9">
+        <v>120</v>
+      </c>
+      <c r="E1005" s="9">
+        <v>953.35</v>
+      </c>
+      <c r="F1005" s="9">
+        <v>20.92</v>
+      </c>
+      <c r="G1005" s="9">
+        <v>25.5</v>
+      </c>
+      <c r="H1005" s="11">
+        <v>3241000</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G948"/>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0" footer="0"/>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -856,7 +856,7 @@
   <dimension ref="A1:H1005"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A962" workbookViewId="0">
-      <selection activeCell="H1006" sqref="H1006"/>
+      <selection activeCell="A1000" sqref="A1000:G1005"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25166,19 +25166,19 @@
         <v>8</v>
       </c>
       <c r="C1000" s="8">
-        <v>47910</v>
+        <v>97932</v>
       </c>
       <c r="D1000" s="9">
-        <v>75</v>
+        <v>142.5</v>
       </c>
       <c r="E1000" s="10">
-        <v>2435.69</v>
+        <v>2532.5100000000002</v>
       </c>
       <c r="F1000" s="9">
-        <v>19.670000000000002</v>
+        <v>38.67</v>
       </c>
       <c r="G1000" s="9">
-        <v>26.5</v>
+        <v>50.5</v>
       </c>
       <c r="H1000" s="11">
         <v>3241000</v>
@@ -25192,19 +25192,19 @@
         <v>10</v>
       </c>
       <c r="C1001" s="8">
-        <v>63712</v>
+        <v>101786</v>
       </c>
       <c r="D1001" s="9">
-        <v>96.5</v>
+        <v>151.5</v>
       </c>
       <c r="E1001" s="10">
-        <v>2592.0300000000002</v>
+        <v>2590.63</v>
       </c>
       <c r="F1001" s="9">
-        <v>24.58</v>
+        <v>39.29</v>
       </c>
       <c r="G1001" s="9">
-        <v>34.17</v>
+        <v>53.5</v>
       </c>
       <c r="H1001" s="11">
         <v>3241000</v>
@@ -25244,19 +25244,19 @@
         <v>7</v>
       </c>
       <c r="C1003" s="8">
-        <v>196637</v>
+        <v>282433</v>
       </c>
       <c r="D1003" s="9">
-        <v>352.34</v>
+        <v>512.34</v>
       </c>
       <c r="E1003" s="10">
-        <v>3422.15</v>
+        <v>3400.76</v>
       </c>
       <c r="F1003" s="9">
-        <v>57.46</v>
+        <v>83.05</v>
       </c>
       <c r="G1003" s="9">
-        <v>74.959999999999994</v>
+        <v>108.96</v>
       </c>
       <c r="H1003" s="11">
         <v>3241000</v>
@@ -25270,19 +25270,19 @@
         <v>11</v>
       </c>
       <c r="C1004" s="8">
-        <v>197451</v>
+        <v>242099</v>
       </c>
       <c r="D1004" s="9">
-        <v>369.92</v>
+        <v>466.59</v>
       </c>
       <c r="E1004" s="10">
-        <v>3301.3</v>
+        <v>3328.74</v>
       </c>
       <c r="F1004" s="9">
-        <v>59.81</v>
+        <v>72.73</v>
       </c>
       <c r="G1004" s="9">
-        <v>78.48</v>
+        <v>99.31</v>
       </c>
       <c r="H1004" s="11">
         <v>3241000</v>
@@ -25296,19 +25296,19 @@
         <v>136</v>
       </c>
       <c r="C1005" s="8">
-        <v>19944</v>
+        <v>39418</v>
       </c>
       <c r="D1005" s="9">
-        <v>120</v>
-      </c>
-      <c r="E1005" s="9">
-        <v>953.35</v>
+        <v>207</v>
+      </c>
+      <c r="E1005" s="10">
+        <v>1082.02</v>
       </c>
       <c r="F1005" s="9">
-        <v>20.92</v>
+        <v>36.43</v>
       </c>
       <c r="G1005" s="9">
-        <v>25.5</v>
+        <v>44.5</v>
       </c>
       <c r="H1005" s="11">
         <v>3241000</v>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -25166,19 +25166,19 @@
         <v>8</v>
       </c>
       <c r="C1000" s="8">
-        <v>97932</v>
+        <v>138912</v>
       </c>
       <c r="D1000" s="9">
-        <v>142.5</v>
+        <v>203.25</v>
       </c>
       <c r="E1000" s="10">
-        <v>2532.5100000000002</v>
+        <v>2517.89</v>
       </c>
       <c r="F1000" s="9">
-        <v>38.67</v>
+        <v>55.17</v>
       </c>
       <c r="G1000" s="9">
-        <v>50.5</v>
+        <v>71.75</v>
       </c>
       <c r="H1000" s="11">
         <v>3241000</v>
@@ -25192,19 +25192,19 @@
         <v>10</v>
       </c>
       <c r="C1001" s="8">
-        <v>101786</v>
+        <v>105630</v>
       </c>
       <c r="D1001" s="9">
-        <v>151.5</v>
+        <v>159.5</v>
       </c>
       <c r="E1001" s="10">
-        <v>2590.63</v>
+        <v>2595.9699999999998</v>
       </c>
       <c r="F1001" s="9">
-        <v>39.29</v>
+        <v>40.69</v>
       </c>
       <c r="G1001" s="9">
-        <v>53.5</v>
+        <v>56.17</v>
       </c>
       <c r="H1001" s="11">
         <v>3241000</v>
@@ -25244,19 +25244,19 @@
         <v>7</v>
       </c>
       <c r="C1003" s="8">
-        <v>282433</v>
+        <v>358785</v>
       </c>
       <c r="D1003" s="9">
-        <v>512.34</v>
+        <v>666.51</v>
       </c>
       <c r="E1003" s="10">
-        <v>3400.76</v>
+        <v>3379.03</v>
       </c>
       <c r="F1003" s="9">
-        <v>83.05</v>
+        <v>106.18</v>
       </c>
       <c r="G1003" s="9">
-        <v>108.96</v>
+        <v>141.79</v>
       </c>
       <c r="H1003" s="11">
         <v>3241000</v>
@@ -25270,19 +25270,19 @@
         <v>11</v>
       </c>
       <c r="C1004" s="8">
-        <v>242099</v>
+        <v>374485</v>
       </c>
       <c r="D1004" s="9">
-        <v>466.59</v>
+        <v>684.92</v>
       </c>
       <c r="E1004" s="10">
-        <v>3328.74</v>
+        <v>3421.83</v>
       </c>
       <c r="F1004" s="9">
-        <v>72.73</v>
+        <v>109.44</v>
       </c>
       <c r="G1004" s="9">
-        <v>99.31</v>
+        <v>145.47999999999999</v>
       </c>
       <c r="H1004" s="11">
         <v>3241000</v>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -25166,19 +25166,19 @@
         <v>8</v>
       </c>
       <c r="C1000" s="8">
-        <v>138912</v>
+        <v>180870</v>
       </c>
       <c r="D1000" s="9">
-        <v>203.25</v>
+        <v>263.5</v>
       </c>
       <c r="E1000" s="10">
-        <v>2517.89</v>
+        <v>2532.13</v>
       </c>
       <c r="F1000" s="9">
-        <v>55.17</v>
+        <v>71.430000000000007</v>
       </c>
       <c r="G1000" s="9">
-        <v>71.75</v>
+        <v>93.33</v>
       </c>
       <c r="H1000" s="11">
         <v>3241000</v>
@@ -25192,19 +25192,19 @@
         <v>10</v>
       </c>
       <c r="C1001" s="8">
-        <v>105630</v>
+        <v>168233</v>
       </c>
       <c r="D1001" s="9">
-        <v>159.5</v>
+        <v>255.25</v>
       </c>
       <c r="E1001" s="10">
-        <v>2595.9699999999998</v>
+        <v>2596.9899999999998</v>
       </c>
       <c r="F1001" s="9">
-        <v>40.69</v>
+        <v>64.78</v>
       </c>
       <c r="G1001" s="9">
-        <v>56.17</v>
+        <v>90.08</v>
       </c>
       <c r="H1001" s="11">
         <v>3241000</v>
@@ -25244,19 +25244,19 @@
         <v>7</v>
       </c>
       <c r="C1003" s="8">
-        <v>358785</v>
+        <v>399440</v>
       </c>
       <c r="D1003" s="9">
-        <v>666.51</v>
+        <v>744.01</v>
       </c>
       <c r="E1003" s="10">
-        <v>3379.03</v>
+        <v>3351.57</v>
       </c>
       <c r="F1003" s="9">
-        <v>106.18</v>
+        <v>119.18</v>
       </c>
       <c r="G1003" s="9">
-        <v>141.79</v>
+        <v>157.79</v>
       </c>
       <c r="H1003" s="11">
         <v>3241000</v>
@@ -25296,19 +25296,19 @@
         <v>136</v>
       </c>
       <c r="C1005" s="8">
-        <v>39418</v>
+        <v>108610</v>
       </c>
       <c r="D1005" s="9">
-        <v>207</v>
+        <v>564.41999999999996</v>
       </c>
       <c r="E1005" s="10">
-        <v>1082.02</v>
+        <v>1072.3699999999999</v>
       </c>
       <c r="F1005" s="9">
-        <v>36.43</v>
+        <v>101.28</v>
       </c>
       <c r="G1005" s="9">
-        <v>44.5</v>
+        <v>122.08</v>
       </c>
       <c r="H1005" s="11">
         <v>3241000</v>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2016" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="147">
   <si>
     <t>Месяц</t>
   </si>
@@ -853,10 +853,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1005"/>
+  <dimension ref="A1:H1006"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A962" workbookViewId="0">
-      <selection activeCell="A1000" sqref="A1000:G1005"/>
+      <selection activeCell="D999" sqref="D999"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25166,19 +25166,19 @@
         <v>8</v>
       </c>
       <c r="C1000" s="8">
-        <v>180870</v>
+        <v>218236</v>
       </c>
       <c r="D1000" s="9">
-        <v>263.5</v>
+        <v>319.5</v>
       </c>
       <c r="E1000" s="10">
-        <v>2532.13</v>
+        <v>2522.96</v>
       </c>
       <c r="F1000" s="9">
-        <v>71.430000000000007</v>
+        <v>86.5</v>
       </c>
       <c r="G1000" s="9">
-        <v>93.33</v>
+        <v>113</v>
       </c>
       <c r="H1000" s="11">
         <v>3241000</v>
@@ -25192,19 +25192,19 @@
         <v>10</v>
       </c>
       <c r="C1001" s="8">
-        <v>168233</v>
+        <v>199261</v>
       </c>
       <c r="D1001" s="9">
-        <v>255.25</v>
+        <v>298</v>
       </c>
       <c r="E1001" s="10">
-        <v>2596.9899999999998</v>
+        <v>2623.58</v>
       </c>
       <c r="F1001" s="9">
-        <v>64.78</v>
+        <v>75.95</v>
       </c>
       <c r="G1001" s="9">
-        <v>90.08</v>
+        <v>105.33</v>
       </c>
       <c r="H1001" s="11">
         <v>3241000</v>
@@ -25241,22 +25241,22 @@
         <v>146</v>
       </c>
       <c r="B1003" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1003" s="8">
-        <v>399440</v>
+        <v>33370</v>
       </c>
       <c r="D1003" s="9">
-        <v>744.01</v>
+        <v>54</v>
       </c>
       <c r="E1003" s="10">
-        <v>3351.57</v>
+        <v>2669.6</v>
       </c>
       <c r="F1003" s="9">
-        <v>119.18</v>
+        <v>12.5</v>
       </c>
       <c r="G1003" s="9">
-        <v>157.79</v>
+        <v>15</v>
       </c>
       <c r="H1003" s="11">
         <v>3241000</v>
@@ -25267,22 +25267,22 @@
         <v>146</v>
       </c>
       <c r="B1004" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1004" s="8">
-        <v>374485</v>
+        <v>429176</v>
       </c>
       <c r="D1004" s="9">
-        <v>684.92</v>
+        <v>825.26</v>
       </c>
       <c r="E1004" s="10">
-        <v>3421.83</v>
+        <v>3236.62</v>
       </c>
       <c r="F1004" s="9">
-        <v>109.44</v>
+        <v>132.6</v>
       </c>
       <c r="G1004" s="9">
-        <v>145.47999999999999</v>
+        <v>175.04</v>
       </c>
       <c r="H1004" s="11">
         <v>3241000</v>
@@ -25293,24 +25293,50 @@
         <v>146</v>
       </c>
       <c r="B1005" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1005" s="8">
+        <v>625657</v>
+      </c>
+      <c r="D1005" s="10">
+        <v>1074.0899999999999</v>
+      </c>
+      <c r="E1005" s="10">
+        <v>3505.87</v>
+      </c>
+      <c r="F1005" s="9">
+        <v>178.46</v>
+      </c>
+      <c r="G1005" s="9">
+        <v>228.31</v>
+      </c>
+      <c r="H1005" s="11">
+        <v>3241000</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1006" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1006" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C1005" s="8">
-        <v>108610</v>
-      </c>
-      <c r="D1005" s="9">
-        <v>564.41999999999996</v>
-      </c>
-      <c r="E1005" s="10">
-        <v>1072.3699999999999</v>
-      </c>
-      <c r="F1005" s="9">
-        <v>101.28</v>
-      </c>
-      <c r="G1005" s="9">
-        <v>122.08</v>
-      </c>
-      <c r="H1005" s="11">
+      <c r="C1006" s="8">
+        <v>129103</v>
+      </c>
+      <c r="D1006" s="9">
+        <v>660.92</v>
+      </c>
+      <c r="E1006" s="10">
+        <v>1101.56</v>
+      </c>
+      <c r="F1006" s="9">
+        <v>117.2</v>
+      </c>
+      <c r="G1006" s="9">
+        <v>141.75</v>
+      </c>
+      <c r="H1006" s="11">
         <v>3241000</v>
       </c>
     </row>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -856,7 +856,7 @@
   <dimension ref="A1:H1006"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A962" workbookViewId="0">
-      <selection activeCell="D999" sqref="D999"/>
+      <selection activeCell="A1000" sqref="A1000:G1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25166,19 +25166,19 @@
         <v>8</v>
       </c>
       <c r="C1000" s="8">
-        <v>218236</v>
+        <v>268072</v>
       </c>
       <c r="D1000" s="9">
-        <v>319.5</v>
+        <v>387</v>
       </c>
       <c r="E1000" s="10">
-        <v>2522.96</v>
+        <v>2511.21</v>
       </c>
       <c r="F1000" s="9">
-        <v>86.5</v>
+        <v>106.75</v>
       </c>
       <c r="G1000" s="9">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="H1000" s="11">
         <v>3241000</v>
@@ -25192,19 +25192,19 @@
         <v>10</v>
       </c>
       <c r="C1001" s="8">
-        <v>199261</v>
+        <v>242383</v>
       </c>
       <c r="D1001" s="9">
-        <v>298</v>
+        <v>360.5</v>
       </c>
       <c r="E1001" s="10">
-        <v>2623.58</v>
+        <v>2626.32</v>
       </c>
       <c r="F1001" s="9">
-        <v>75.95</v>
+        <v>92.29</v>
       </c>
       <c r="G1001" s="9">
-        <v>105.33</v>
+        <v>127.67</v>
       </c>
       <c r="H1001" s="11">
         <v>3241000</v>
@@ -25218,19 +25218,19 @@
         <v>12</v>
       </c>
       <c r="C1002" s="8">
-        <v>7390</v>
+        <v>13540</v>
       </c>
       <c r="D1002" s="9">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="E1002" s="9">
-        <v>479.25</v>
+        <v>445.1</v>
       </c>
       <c r="F1002" s="9">
-        <v>15.42</v>
+        <v>30.42</v>
       </c>
       <c r="G1002" s="9">
-        <v>20.5</v>
+        <v>50.67</v>
       </c>
       <c r="H1002" s="11">
         <v>3241000</v>
@@ -25244,19 +25244,19 @@
         <v>13</v>
       </c>
       <c r="C1003" s="8">
-        <v>33370</v>
+        <v>78100</v>
       </c>
       <c r="D1003" s="9">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="E1003" s="10">
-        <v>2669.6</v>
+        <v>3003.85</v>
       </c>
       <c r="F1003" s="9">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="G1003" s="9">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="H1003" s="11">
         <v>3241000</v>
@@ -25270,19 +25270,19 @@
         <v>7</v>
       </c>
       <c r="C1004" s="8">
-        <v>429176</v>
-      </c>
-      <c r="D1004" s="9">
-        <v>825.26</v>
+        <v>547714</v>
+      </c>
+      <c r="D1004" s="10">
+        <v>1030.01</v>
       </c>
       <c r="E1004" s="10">
-        <v>3236.62</v>
+        <v>3332.81</v>
       </c>
       <c r="F1004" s="9">
-        <v>132.6</v>
+        <v>164.34</v>
       </c>
       <c r="G1004" s="9">
-        <v>175.04</v>
+        <v>219.79</v>
       </c>
       <c r="H1004" s="11">
         <v>3241000</v>
@@ -25296,19 +25296,19 @@
         <v>11</v>
       </c>
       <c r="C1005" s="8">
-        <v>625657</v>
+        <v>670961</v>
       </c>
       <c r="D1005" s="10">
-        <v>1074.0899999999999</v>
+        <v>1179.92</v>
       </c>
       <c r="E1005" s="10">
-        <v>3505.87</v>
+        <v>3451.8</v>
       </c>
       <c r="F1005" s="9">
-        <v>178.46</v>
+        <v>194.38</v>
       </c>
       <c r="G1005" s="9">
-        <v>228.31</v>
+        <v>250.48</v>
       </c>
       <c r="H1005" s="11">
         <v>3241000</v>
@@ -25322,19 +25322,19 @@
         <v>136</v>
       </c>
       <c r="C1006" s="8">
-        <v>129103</v>
+        <v>149563</v>
       </c>
       <c r="D1006" s="9">
-        <v>660.92</v>
+        <v>757.92</v>
       </c>
       <c r="E1006" s="10">
-        <v>1101.56</v>
+        <v>1108.28</v>
       </c>
       <c r="F1006" s="9">
-        <v>117.2</v>
+        <v>134.94999999999999</v>
       </c>
       <c r="G1006" s="9">
-        <v>141.75</v>
+        <v>163.5</v>
       </c>
       <c r="H1006" s="11">
         <v>3241000</v>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -25166,19 +25166,19 @@
         <v>8</v>
       </c>
       <c r="C1000" s="8">
-        <v>268072</v>
+        <v>361434</v>
       </c>
       <c r="D1000" s="9">
-        <v>387</v>
+        <v>514</v>
       </c>
       <c r="E1000" s="10">
-        <v>2511.21</v>
+        <v>2540.84</v>
       </c>
       <c r="F1000" s="9">
-        <v>106.75</v>
+        <v>142.25</v>
       </c>
       <c r="G1000" s="9">
-        <v>137</v>
+        <v>181.83</v>
       </c>
       <c r="H1000" s="11">
         <v>3241000</v>
@@ -25192,19 +25192,19 @@
         <v>10</v>
       </c>
       <c r="C1001" s="8">
-        <v>242383</v>
+        <v>266399</v>
       </c>
       <c r="D1001" s="9">
-        <v>360.5</v>
+        <v>394.5</v>
       </c>
       <c r="E1001" s="10">
-        <v>2626.32</v>
+        <v>2623.07</v>
       </c>
       <c r="F1001" s="9">
-        <v>92.29</v>
+        <v>101.56</v>
       </c>
       <c r="G1001" s="9">
-        <v>127.67</v>
+        <v>139.5</v>
       </c>
       <c r="H1001" s="11">
         <v>3241000</v>
@@ -25218,19 +25218,19 @@
         <v>12</v>
       </c>
       <c r="C1002" s="8">
-        <v>13540</v>
+        <v>20785</v>
       </c>
       <c r="D1002" s="9">
-        <v>104</v>
+        <v>151.5</v>
       </c>
       <c r="E1002" s="9">
-        <v>445.1</v>
+        <v>480.58</v>
       </c>
       <c r="F1002" s="9">
-        <v>30.42</v>
+        <v>43.25</v>
       </c>
       <c r="G1002" s="9">
-        <v>50.67</v>
+        <v>67.5</v>
       </c>
       <c r="H1002" s="11">
         <v>3241000</v>
@@ -25270,19 +25270,19 @@
         <v>7</v>
       </c>
       <c r="C1004" s="8">
-        <v>547714</v>
+        <v>619669</v>
       </c>
       <c r="D1004" s="10">
-        <v>1030.01</v>
+        <v>1175.8399999999999</v>
       </c>
       <c r="E1004" s="10">
-        <v>3332.81</v>
+        <v>3334.24</v>
       </c>
       <c r="F1004" s="9">
-        <v>164.34</v>
+        <v>185.85</v>
       </c>
       <c r="G1004" s="9">
-        <v>219.79</v>
+        <v>250.46</v>
       </c>
       <c r="H1004" s="11">
         <v>3241000</v>
@@ -25296,19 +25296,19 @@
         <v>11</v>
       </c>
       <c r="C1005" s="8">
-        <v>670961</v>
+        <v>762746</v>
       </c>
       <c r="D1005" s="10">
-        <v>1179.92</v>
+        <v>1333.25</v>
       </c>
       <c r="E1005" s="10">
-        <v>3451.8</v>
+        <v>3479.52</v>
       </c>
       <c r="F1005" s="9">
-        <v>194.38</v>
+        <v>219.21</v>
       </c>
       <c r="G1005" s="9">
-        <v>250.48</v>
+        <v>283.14999999999998</v>
       </c>
       <c r="H1005" s="11">
         <v>3241000</v>
@@ -25322,19 +25322,19 @@
         <v>136</v>
       </c>
       <c r="C1006" s="8">
-        <v>149563</v>
+        <v>169465</v>
       </c>
       <c r="D1006" s="9">
-        <v>757.92</v>
+        <v>867.09</v>
       </c>
       <c r="E1006" s="10">
-        <v>1108.28</v>
+        <v>1100.1400000000001</v>
       </c>
       <c r="F1006" s="9">
-        <v>134.94999999999999</v>
+        <v>154.04</v>
       </c>
       <c r="G1006" s="9">
-        <v>163.5</v>
+        <v>186.83</v>
       </c>
       <c r="H1006" s="11">
         <v>3241000</v>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -25166,19 +25166,19 @@
         <v>8</v>
       </c>
       <c r="C1000" s="8">
-        <v>361434</v>
+        <v>381653</v>
       </c>
       <c r="D1000" s="9">
-        <v>514</v>
+        <v>545.5</v>
       </c>
       <c r="E1000" s="10">
-        <v>2540.84</v>
+        <v>2544.35</v>
       </c>
       <c r="F1000" s="9">
-        <v>142.25</v>
+        <v>150</v>
       </c>
       <c r="G1000" s="9">
-        <v>181.83</v>
+        <v>193.32</v>
       </c>
       <c r="H1000" s="11">
         <v>3241000</v>
@@ -25192,19 +25192,19 @@
         <v>10</v>
       </c>
       <c r="C1001" s="8">
-        <v>266399</v>
+        <v>289518</v>
       </c>
       <c r="D1001" s="9">
-        <v>394.5</v>
+        <v>426</v>
       </c>
       <c r="E1001" s="10">
-        <v>2623.07</v>
+        <v>2620.0700000000002</v>
       </c>
       <c r="F1001" s="9">
-        <v>101.56</v>
+        <v>110.5</v>
       </c>
       <c r="G1001" s="9">
-        <v>139.5</v>
+        <v>150.5</v>
       </c>
       <c r="H1001" s="11">
         <v>3241000</v>
@@ -25218,19 +25218,19 @@
         <v>12</v>
       </c>
       <c r="C1002" s="8">
-        <v>20785</v>
+        <v>25673</v>
       </c>
       <c r="D1002" s="9">
-        <v>151.5</v>
+        <v>183</v>
       </c>
       <c r="E1002" s="9">
-        <v>480.58</v>
+        <v>493.71</v>
       </c>
       <c r="F1002" s="9">
-        <v>43.25</v>
+        <v>52</v>
       </c>
       <c r="G1002" s="9">
-        <v>67.5</v>
+        <v>78.5</v>
       </c>
       <c r="H1002" s="11">
         <v>3241000</v>
@@ -25270,19 +25270,19 @@
         <v>7</v>
       </c>
       <c r="C1004" s="8">
-        <v>619669</v>
+        <v>672139</v>
       </c>
       <c r="D1004" s="10">
-        <v>1175.8399999999999</v>
+        <v>1261.26</v>
       </c>
       <c r="E1004" s="10">
-        <v>3334.24</v>
+        <v>3357.17</v>
       </c>
       <c r="F1004" s="9">
-        <v>185.85</v>
+        <v>200.21</v>
       </c>
       <c r="G1004" s="9">
-        <v>250.46</v>
+        <v>268.54000000000002</v>
       </c>
       <c r="H1004" s="11">
         <v>3241000</v>
@@ -25296,19 +25296,19 @@
         <v>11</v>
       </c>
       <c r="C1005" s="8">
-        <v>762746</v>
+        <v>837740</v>
       </c>
       <c r="D1005" s="10">
-        <v>1333.25</v>
+        <v>1456.92</v>
       </c>
       <c r="E1005" s="10">
-        <v>3479.52</v>
+        <v>3471.78</v>
       </c>
       <c r="F1005" s="9">
-        <v>219.21</v>
+        <v>241.3</v>
       </c>
       <c r="G1005" s="9">
-        <v>283.14999999999998</v>
+        <v>310.98</v>
       </c>
       <c r="H1005" s="11">
         <v>3241000</v>
@@ -25322,19 +25322,19 @@
         <v>136</v>
       </c>
       <c r="C1006" s="8">
-        <v>169465</v>
+        <v>174271</v>
       </c>
       <c r="D1006" s="9">
-        <v>867.09</v>
+        <v>898.59</v>
       </c>
       <c r="E1006" s="10">
-        <v>1100.1400000000001</v>
+        <v>1091.79</v>
       </c>
       <c r="F1006" s="9">
-        <v>154.04</v>
+        <v>159.62</v>
       </c>
       <c r="G1006" s="9">
-        <v>186.83</v>
+        <v>194.67</v>
       </c>
       <c r="H1006" s="11">
         <v>3241000</v>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -25166,19 +25166,19 @@
         <v>8</v>
       </c>
       <c r="C1000" s="8">
-        <v>381653</v>
+        <v>401919</v>
       </c>
       <c r="D1000" s="9">
-        <v>545.5</v>
+        <v>576</v>
       </c>
       <c r="E1000" s="10">
-        <v>2544.35</v>
+        <v>2539.77</v>
       </c>
       <c r="F1000" s="9">
-        <v>150</v>
+        <v>158.25</v>
       </c>
       <c r="G1000" s="9">
-        <v>193.32</v>
+        <v>203.99</v>
       </c>
       <c r="H1000" s="11">
         <v>3241000</v>
@@ -25192,19 +25192,19 @@
         <v>10</v>
       </c>
       <c r="C1001" s="8">
-        <v>289518</v>
+        <v>305000</v>
       </c>
       <c r="D1001" s="9">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="E1001" s="10">
-        <v>2620.0700000000002</v>
+        <v>2579.2800000000002</v>
       </c>
       <c r="F1001" s="9">
-        <v>110.5</v>
+        <v>118.25</v>
       </c>
       <c r="G1001" s="9">
-        <v>150.5</v>
+        <v>161.5</v>
       </c>
       <c r="H1001" s="11">
         <v>3241000</v>
@@ -25270,19 +25270,19 @@
         <v>7</v>
       </c>
       <c r="C1004" s="8">
-        <v>672139</v>
+        <v>702213</v>
       </c>
       <c r="D1004" s="10">
-        <v>1261.26</v>
+        <v>1316.68</v>
       </c>
       <c r="E1004" s="10">
-        <v>3357.17</v>
+        <v>3352.49</v>
       </c>
       <c r="F1004" s="9">
-        <v>200.21</v>
+        <v>209.46</v>
       </c>
       <c r="G1004" s="9">
-        <v>268.54000000000002</v>
+        <v>280.62</v>
       </c>
       <c r="H1004" s="11">
         <v>3241000</v>
@@ -25296,19 +25296,19 @@
         <v>11</v>
       </c>
       <c r="C1005" s="8">
-        <v>837740</v>
+        <v>862580</v>
       </c>
       <c r="D1005" s="10">
-        <v>1456.92</v>
+        <v>1499.42</v>
       </c>
       <c r="E1005" s="10">
-        <v>3471.78</v>
+        <v>3477.44</v>
       </c>
       <c r="F1005" s="9">
-        <v>241.3</v>
+        <v>248.05</v>
       </c>
       <c r="G1005" s="9">
-        <v>310.98</v>
+        <v>319.98</v>
       </c>
       <c r="H1005" s="11">
         <v>3241000</v>
@@ -25322,19 +25322,19 @@
         <v>136</v>
       </c>
       <c r="C1006" s="8">
-        <v>174271</v>
+        <v>181464</v>
       </c>
       <c r="D1006" s="9">
-        <v>898.59</v>
+        <v>942.42</v>
       </c>
       <c r="E1006" s="10">
-        <v>1091.79</v>
+        <v>1086.42</v>
       </c>
       <c r="F1006" s="9">
-        <v>159.62</v>
+        <v>167.03</v>
       </c>
       <c r="G1006" s="9">
-        <v>194.67</v>
+        <v>204.5</v>
       </c>
       <c r="H1006" s="11">
         <v>3241000</v>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -25166,19 +25166,19 @@
         <v>8</v>
       </c>
       <c r="C1000" s="8">
-        <v>401919</v>
+        <v>451170</v>
       </c>
       <c r="D1000" s="9">
-        <v>576</v>
+        <v>645.5</v>
       </c>
       <c r="E1000" s="10">
-        <v>2539.77</v>
+        <v>2540.66</v>
       </c>
       <c r="F1000" s="9">
-        <v>158.25</v>
+        <v>177.58</v>
       </c>
       <c r="G1000" s="9">
-        <v>203.99</v>
+        <v>228.66</v>
       </c>
       <c r="H1000" s="11">
         <v>3241000</v>
@@ -25192,19 +25192,19 @@
         <v>10</v>
       </c>
       <c r="C1001" s="8">
-        <v>305000</v>
+        <v>317134</v>
       </c>
       <c r="D1001" s="9">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="E1001" s="10">
-        <v>2579.2800000000002</v>
+        <v>2566.2199999999998</v>
       </c>
       <c r="F1001" s="9">
-        <v>118.25</v>
+        <v>123.58</v>
       </c>
       <c r="G1001" s="9">
-        <v>161.5</v>
+        <v>169</v>
       </c>
       <c r="H1001" s="11">
         <v>3241000</v>
@@ -25218,19 +25218,19 @@
         <v>12</v>
       </c>
       <c r="C1002" s="8">
-        <v>25673</v>
+        <v>28699</v>
       </c>
       <c r="D1002" s="9">
-        <v>183</v>
+        <v>208.5</v>
       </c>
       <c r="E1002" s="9">
-        <v>493.71</v>
+        <v>492.01</v>
       </c>
       <c r="F1002" s="9">
-        <v>52</v>
+        <v>58.33</v>
       </c>
       <c r="G1002" s="9">
-        <v>78.5</v>
+        <v>87.5</v>
       </c>
       <c r="H1002" s="11">
         <v>3241000</v>
@@ -25270,19 +25270,19 @@
         <v>7</v>
       </c>
       <c r="C1004" s="8">
-        <v>702213</v>
+        <v>733298</v>
       </c>
       <c r="D1004" s="10">
-        <v>1316.68</v>
+        <v>1391.59</v>
       </c>
       <c r="E1004" s="10">
-        <v>3352.49</v>
+        <v>3311.2</v>
       </c>
       <c r="F1004" s="9">
-        <v>209.46</v>
+        <v>221.46</v>
       </c>
       <c r="G1004" s="9">
-        <v>280.62</v>
+        <v>296.61</v>
       </c>
       <c r="H1004" s="11">
         <v>3241000</v>
@@ -25296,19 +25296,19 @@
         <v>11</v>
       </c>
       <c r="C1005" s="8">
-        <v>862580</v>
+        <v>913862</v>
       </c>
       <c r="D1005" s="10">
-        <v>1499.42</v>
+        <v>1604.42</v>
       </c>
       <c r="E1005" s="10">
-        <v>3477.44</v>
+        <v>3457.54</v>
       </c>
       <c r="F1005" s="9">
-        <v>248.05</v>
+        <v>264.31</v>
       </c>
       <c r="G1005" s="9">
-        <v>319.98</v>
+        <v>342.48</v>
       </c>
       <c r="H1005" s="11">
         <v>3241000</v>
@@ -25322,19 +25322,19 @@
         <v>136</v>
       </c>
       <c r="C1006" s="8">
-        <v>181464</v>
-      </c>
-      <c r="D1006" s="9">
-        <v>942.42</v>
+        <v>202233</v>
+      </c>
+      <c r="D1006" s="10">
+        <v>1038.25</v>
       </c>
       <c r="E1006" s="10">
-        <v>1086.42</v>
+        <v>1100.95</v>
       </c>
       <c r="F1006" s="9">
-        <v>167.03</v>
+        <v>183.69</v>
       </c>
       <c r="G1006" s="9">
-        <v>204.5</v>
+        <v>224.67</v>
       </c>
       <c r="H1006" s="11">
         <v>3241000</v>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2018" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="148">
   <si>
     <t>Месяц</t>
   </si>
@@ -470,6 +470,9 @@
   <si>
     <t>01.11.2022</t>
   </si>
+  <si>
+    <t>01.12.2022</t>
+  </si>
 </sst>
 </file>
 
@@ -853,10 +856,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1006"/>
+  <dimension ref="A1:H1011"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A962" workbookViewId="0">
-      <selection activeCell="A1000" sqref="A1000:G1006"/>
+    <sheetView tabSelected="1" topLeftCell="A974" workbookViewId="0">
+      <selection activeCell="C1013" sqref="C1013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25314,7 +25317,7 @@
         <v>3241000</v>
       </c>
     </row>
-    <row r="1006" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1006" s="7" t="s">
         <v>146</v>
       </c>
@@ -25338,6 +25341,136 @@
       </c>
       <c r="H1006" s="11">
         <v>3241000</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1007" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1007" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1007" s="8">
+        <v>90150</v>
+      </c>
+      <c r="D1007" s="9">
+        <v>126.95</v>
+      </c>
+      <c r="E1007" s="10">
+        <v>2560.35</v>
+      </c>
+      <c r="F1007" s="9">
+        <v>35.21</v>
+      </c>
+      <c r="G1007" s="9">
+        <v>44.82</v>
+      </c>
+      <c r="H1007" s="11">
+        <v>3219000</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1008" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1008" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1008" s="8">
+        <v>65237</v>
+      </c>
+      <c r="D1008" s="9">
+        <v>105</v>
+      </c>
+      <c r="E1008" s="10">
+        <v>2262.0300000000002</v>
+      </c>
+      <c r="F1008" s="9">
+        <v>28.84</v>
+      </c>
+      <c r="G1008" s="9">
+        <v>37.5</v>
+      </c>
+      <c r="H1008" s="11">
+        <v>3219000</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1009" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1009" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1009" s="8">
+        <v>12667</v>
+      </c>
+      <c r="D1009" s="9">
+        <v>75</v>
+      </c>
+      <c r="E1009" s="9">
+        <v>600.9</v>
+      </c>
+      <c r="F1009" s="9">
+        <v>21.08</v>
+      </c>
+      <c r="G1009" s="9">
+        <v>26.5</v>
+      </c>
+      <c r="H1009" s="11">
+        <v>3219000</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1010" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1010" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1010" s="8">
+        <v>165936</v>
+      </c>
+      <c r="D1010" s="9">
+        <v>298.25</v>
+      </c>
+      <c r="E1010" s="10">
+        <v>3180.07</v>
+      </c>
+      <c r="F1010" s="9">
+        <v>52.18</v>
+      </c>
+      <c r="G1010" s="9">
+        <v>63.65</v>
+      </c>
+      <c r="H1010" s="11">
+        <v>3219000</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1011" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1011" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1011" s="8">
+        <v>17064</v>
+      </c>
+      <c r="D1011" s="9">
+        <v>116.5</v>
+      </c>
+      <c r="E1011" s="9">
+        <v>812.57</v>
+      </c>
+      <c r="F1011" s="9">
+        <v>21</v>
+      </c>
+      <c r="G1011" s="9">
+        <v>26</v>
+      </c>
+      <c r="H1011" s="11">
+        <v>3219000</v>
       </c>
     </row>
   </sheetData>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2028" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="148">
   <si>
     <t>Месяц</t>
   </si>
@@ -856,10 +856,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1011"/>
+  <dimension ref="A1:H1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A974" workbookViewId="0">
-      <selection activeCell="C1013" sqref="C1013"/>
+    <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
+      <selection activeCell="A1013" sqref="A1013"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25351,19 +25351,19 @@
         <v>8</v>
       </c>
       <c r="C1007" s="8">
-        <v>90150</v>
+        <v>192177</v>
       </c>
       <c r="D1007" s="9">
-        <v>126.95</v>
+        <v>270.45</v>
       </c>
       <c r="E1007" s="10">
-        <v>2560.35</v>
+        <v>2580.6</v>
       </c>
       <c r="F1007" s="9">
-        <v>35.21</v>
+        <v>74.47</v>
       </c>
       <c r="G1007" s="9">
-        <v>44.82</v>
+        <v>95.65</v>
       </c>
       <c r="H1007" s="11">
         <v>3219000</v>
@@ -25377,19 +25377,19 @@
         <v>10</v>
       </c>
       <c r="C1008" s="8">
-        <v>65237</v>
+        <v>134939</v>
       </c>
       <c r="D1008" s="9">
-        <v>105</v>
+        <v>200.95</v>
       </c>
       <c r="E1008" s="10">
-        <v>2262.0300000000002</v>
+        <v>2436.16</v>
       </c>
       <c r="F1008" s="9">
-        <v>28.84</v>
+        <v>55.39</v>
       </c>
       <c r="G1008" s="9">
-        <v>37.5</v>
+        <v>71.48</v>
       </c>
       <c r="H1008" s="11">
         <v>3219000</v>
@@ -25403,19 +25403,19 @@
         <v>12</v>
       </c>
       <c r="C1009" s="8">
-        <v>12667</v>
+        <v>14147</v>
       </c>
       <c r="D1009" s="9">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="E1009" s="9">
-        <v>600.9</v>
+        <v>597.92999999999995</v>
       </c>
       <c r="F1009" s="9">
-        <v>21.08</v>
+        <v>23.66</v>
       </c>
       <c r="G1009" s="9">
-        <v>26.5</v>
+        <v>30.5</v>
       </c>
       <c r="H1009" s="11">
         <v>3219000</v>
@@ -25429,19 +25429,19 @@
         <v>7</v>
       </c>
       <c r="C1010" s="8">
-        <v>165936</v>
+        <v>208230</v>
       </c>
       <c r="D1010" s="9">
-        <v>298.25</v>
+        <v>433.66</v>
       </c>
       <c r="E1010" s="10">
-        <v>3180.07</v>
+        <v>3065.81</v>
       </c>
       <c r="F1010" s="9">
-        <v>52.18</v>
+        <v>67.92</v>
       </c>
       <c r="G1010" s="9">
-        <v>63.65</v>
+        <v>92.24</v>
       </c>
       <c r="H1010" s="11">
         <v>3219000</v>
@@ -25452,24 +25452,50 @@
         <v>147</v>
       </c>
       <c r="B1011" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1011" s="8">
+        <v>246647</v>
+      </c>
+      <c r="D1011" s="9">
+        <v>407.42</v>
+      </c>
+      <c r="E1011" s="10">
+        <v>3320.95</v>
+      </c>
+      <c r="F1011" s="9">
+        <v>74.27</v>
+      </c>
+      <c r="G1011" s="9">
+        <v>86.98</v>
+      </c>
+      <c r="H1011" s="11">
+        <v>3219000</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1012" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1012" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C1011" s="8">
-        <v>17064</v>
-      </c>
-      <c r="D1011" s="9">
-        <v>116.5</v>
-      </c>
-      <c r="E1011" s="9">
-        <v>812.57</v>
-      </c>
-      <c r="F1011" s="9">
-        <v>21</v>
-      </c>
-      <c r="G1011" s="9">
-        <v>26</v>
-      </c>
-      <c r="H1011" s="11">
+      <c r="C1012" s="8">
+        <v>28725</v>
+      </c>
+      <c r="D1012" s="9">
+        <v>187.67</v>
+      </c>
+      <c r="E1012" s="9">
+        <v>836.49</v>
+      </c>
+      <c r="F1012" s="9">
+        <v>34.340000000000003</v>
+      </c>
+      <c r="G1012" s="9">
+        <v>43.83</v>
+      </c>
+      <c r="H1012" s="11">
         <v>3219000</v>
       </c>
     </row>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -859,7 +859,7 @@
   <dimension ref="A1:H1012"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="A1013" sqref="A1013"/>
+      <selection activeCell="A1007" sqref="A1007:G1012"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25351,19 +25351,19 @@
         <v>8</v>
       </c>
       <c r="C1007" s="8">
-        <v>192177</v>
+        <v>289875</v>
       </c>
       <c r="D1007" s="9">
-        <v>270.45</v>
+        <v>407.95</v>
       </c>
       <c r="E1007" s="10">
-        <v>2580.6</v>
+        <v>2591.41</v>
       </c>
       <c r="F1007" s="9">
-        <v>74.47</v>
+        <v>111.86</v>
       </c>
       <c r="G1007" s="9">
-        <v>95.65</v>
+        <v>143.97999999999999</v>
       </c>
       <c r="H1007" s="11">
         <v>3219000</v>
@@ -25377,19 +25377,19 @@
         <v>10</v>
       </c>
       <c r="C1008" s="8">
-        <v>134939</v>
+        <v>233869</v>
       </c>
       <c r="D1008" s="9">
-        <v>200.95</v>
+        <v>341.95</v>
       </c>
       <c r="E1008" s="10">
-        <v>2436.16</v>
+        <v>2535.44</v>
       </c>
       <c r="F1008" s="9">
-        <v>55.39</v>
+        <v>92.24</v>
       </c>
       <c r="G1008" s="9">
-        <v>71.48</v>
+        <v>121.48</v>
       </c>
       <c r="H1008" s="11">
         <v>3219000</v>
@@ -25429,19 +25429,19 @@
         <v>7</v>
       </c>
       <c r="C1010" s="8">
-        <v>208230</v>
+        <v>325914</v>
       </c>
       <c r="D1010" s="9">
-        <v>433.66</v>
+        <v>623.66</v>
       </c>
       <c r="E1010" s="10">
-        <v>3065.81</v>
+        <v>3174.07</v>
       </c>
       <c r="F1010" s="9">
-        <v>67.92</v>
+        <v>102.68</v>
       </c>
       <c r="G1010" s="9">
-        <v>92.24</v>
+        <v>132.74</v>
       </c>
       <c r="H1010" s="11">
         <v>3219000</v>
@@ -25455,19 +25455,19 @@
         <v>11</v>
       </c>
       <c r="C1011" s="8">
-        <v>246647</v>
+        <v>347537</v>
       </c>
       <c r="D1011" s="9">
-        <v>407.42</v>
+        <v>555.75</v>
       </c>
       <c r="E1011" s="10">
-        <v>3320.95</v>
+        <v>3456.02</v>
       </c>
       <c r="F1011" s="9">
-        <v>74.27</v>
+        <v>100.56</v>
       </c>
       <c r="G1011" s="9">
-        <v>86.98</v>
+        <v>118.65</v>
       </c>
       <c r="H1011" s="11">
         <v>3219000</v>
@@ -25481,19 +25481,19 @@
         <v>136</v>
       </c>
       <c r="C1012" s="8">
-        <v>28725</v>
+        <v>40119</v>
       </c>
       <c r="D1012" s="9">
-        <v>187.67</v>
+        <v>263.5</v>
       </c>
       <c r="E1012" s="9">
-        <v>836.49</v>
+        <v>873.48</v>
       </c>
       <c r="F1012" s="9">
-        <v>34.340000000000003</v>
+        <v>45.93</v>
       </c>
       <c r="G1012" s="9">
-        <v>43.83</v>
+        <v>60</v>
       </c>
       <c r="H1012" s="11">
         <v>3219000</v>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2030" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="148">
   <si>
     <t>Месяц</t>
   </si>
@@ -856,10 +856,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1012"/>
+  <dimension ref="A1:H1013"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="A1007" sqref="A1007:G1012"/>
+      <selection activeCell="D1016" sqref="D1016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25351,19 +25351,19 @@
         <v>8</v>
       </c>
       <c r="C1007" s="8">
-        <v>289875</v>
+        <v>363927</v>
       </c>
       <c r="D1007" s="9">
-        <v>407.95</v>
+        <v>516.45000000000005</v>
       </c>
       <c r="E1007" s="10">
-        <v>2591.41</v>
+        <v>2586.5500000000002</v>
       </c>
       <c r="F1007" s="9">
-        <v>111.86</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="G1007" s="9">
-        <v>143.97999999999999</v>
+        <v>182.65</v>
       </c>
       <c r="H1007" s="11">
         <v>3219000</v>
@@ -25377,19 +25377,19 @@
         <v>10</v>
       </c>
       <c r="C1008" s="8">
-        <v>233869</v>
+        <v>298231</v>
       </c>
       <c r="D1008" s="9">
-        <v>341.95</v>
+        <v>440.9</v>
       </c>
       <c r="E1008" s="10">
-        <v>2535.44</v>
+        <v>2528.2399999999998</v>
       </c>
       <c r="F1008" s="9">
-        <v>92.24</v>
+        <v>117.96</v>
       </c>
       <c r="G1008" s="9">
-        <v>121.48</v>
+        <v>156.47</v>
       </c>
       <c r="H1008" s="11">
         <v>3219000</v>
@@ -25426,22 +25426,22 @@
         <v>147</v>
       </c>
       <c r="B1010" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1010" s="8">
-        <v>325914</v>
+        <v>101682</v>
       </c>
       <c r="D1010" s="9">
-        <v>623.66</v>
+        <v>153.33000000000001</v>
       </c>
       <c r="E1010" s="10">
-        <v>3174.07</v>
+        <v>3731.45</v>
       </c>
       <c r="F1010" s="9">
-        <v>102.68</v>
+        <v>27.25</v>
       </c>
       <c r="G1010" s="9">
-        <v>132.74</v>
+        <v>32.67</v>
       </c>
       <c r="H1010" s="11">
         <v>3219000</v>
@@ -25452,22 +25452,22 @@
         <v>147</v>
       </c>
       <c r="B1011" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1011" s="8">
-        <v>347537</v>
+        <v>325914</v>
       </c>
       <c r="D1011" s="9">
-        <v>555.75</v>
+        <v>623.66</v>
       </c>
       <c r="E1011" s="10">
-        <v>3456.02</v>
+        <v>3174.07</v>
       </c>
       <c r="F1011" s="9">
-        <v>100.56</v>
+        <v>102.68</v>
       </c>
       <c r="G1011" s="9">
-        <v>118.65</v>
+        <v>132.74</v>
       </c>
       <c r="H1011" s="11">
         <v>3219000</v>
@@ -25478,24 +25478,50 @@
         <v>147</v>
       </c>
       <c r="B1012" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1012" s="8">
+        <v>347537</v>
+      </c>
+      <c r="D1012" s="9">
+        <v>555.75</v>
+      </c>
+      <c r="E1012" s="10">
+        <v>3456.02</v>
+      </c>
+      <c r="F1012" s="9">
+        <v>100.56</v>
+      </c>
+      <c r="G1012" s="9">
+        <v>118.65</v>
+      </c>
+      <c r="H1012" s="11">
+        <v>3219000</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1013" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1013" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C1012" s="8">
-        <v>40119</v>
-      </c>
-      <c r="D1012" s="9">
-        <v>263.5</v>
-      </c>
-      <c r="E1012" s="9">
-        <v>873.48</v>
-      </c>
-      <c r="F1012" s="9">
-        <v>45.93</v>
-      </c>
-      <c r="G1012" s="9">
-        <v>60</v>
-      </c>
-      <c r="H1012" s="11">
+      <c r="C1013" s="8">
+        <v>50053</v>
+      </c>
+      <c r="D1013" s="9">
+        <v>331</v>
+      </c>
+      <c r="E1013" s="9">
+        <v>892.37</v>
+      </c>
+      <c r="F1013" s="9">
+        <v>56.09</v>
+      </c>
+      <c r="G1013" s="9">
+        <v>74.5</v>
+      </c>
+      <c r="H1013" s="11">
         <v>3219000</v>
       </c>
     </row>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="148">
   <si>
     <t>Месяц</t>
   </si>
@@ -856,10 +856,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1013"/>
+  <dimension ref="A1:H1014"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="D1016" sqref="D1016"/>
+      <selection activeCell="A1007" sqref="A1007:G1014"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25351,19 +25351,19 @@
         <v>8</v>
       </c>
       <c r="C1007" s="8">
-        <v>363927</v>
+        <v>559026</v>
       </c>
       <c r="D1007" s="9">
-        <v>516.45000000000005</v>
+        <v>778.79</v>
       </c>
       <c r="E1007" s="10">
-        <v>2586.5500000000002</v>
+        <v>2578.1799999999998</v>
       </c>
       <c r="F1007" s="9">
-        <v>140.69999999999999</v>
+        <v>216.83</v>
       </c>
       <c r="G1007" s="9">
-        <v>182.65</v>
+        <v>279.73</v>
       </c>
       <c r="H1007" s="11">
         <v>3219000</v>
@@ -25374,22 +25374,22 @@
         <v>147</v>
       </c>
       <c r="B1008" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1008" s="8">
-        <v>298231</v>
+        <v>61540</v>
       </c>
       <c r="D1008" s="9">
-        <v>440.9</v>
+        <v>97.25</v>
       </c>
       <c r="E1008" s="10">
-        <v>2528.2399999999998</v>
+        <v>2414.2800000000002</v>
       </c>
       <c r="F1008" s="9">
-        <v>117.96</v>
+        <v>25.49</v>
       </c>
       <c r="G1008" s="9">
-        <v>156.47</v>
+        <v>33.909999999999997</v>
       </c>
       <c r="H1008" s="11">
         <v>3219000</v>
@@ -25400,22 +25400,22 @@
         <v>147</v>
       </c>
       <c r="B1009" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C1009" s="8">
-        <v>14147</v>
+        <v>471291</v>
       </c>
       <c r="D1009" s="9">
-        <v>87</v>
-      </c>
-      <c r="E1009" s="9">
-        <v>597.92999999999995</v>
+        <v>710.18</v>
+      </c>
+      <c r="E1009" s="10">
+        <v>2507.9299999999998</v>
       </c>
       <c r="F1009" s="9">
-        <v>23.66</v>
+        <v>187.92</v>
       </c>
       <c r="G1009" s="9">
-        <v>30.5</v>
+        <v>255.96</v>
       </c>
       <c r="H1009" s="11">
         <v>3219000</v>
@@ -25426,22 +25426,22 @@
         <v>147</v>
       </c>
       <c r="B1010" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1010" s="8">
-        <v>101682</v>
+        <v>20261</v>
       </c>
       <c r="D1010" s="9">
-        <v>153.33000000000001</v>
-      </c>
-      <c r="E1010" s="10">
-        <v>3731.45</v>
+        <v>135</v>
+      </c>
+      <c r="E1010" s="9">
+        <v>556.47</v>
       </c>
       <c r="F1010" s="9">
-        <v>27.25</v>
+        <v>36.409999999999997</v>
       </c>
       <c r="G1010" s="9">
-        <v>32.67</v>
+        <v>47.5</v>
       </c>
       <c r="H1010" s="11">
         <v>3219000</v>
@@ -25452,22 +25452,22 @@
         <v>147</v>
       </c>
       <c r="B1011" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1011" s="8">
-        <v>325914</v>
+        <v>425106</v>
       </c>
       <c r="D1011" s="9">
-        <v>623.66</v>
+        <v>626.59</v>
       </c>
       <c r="E1011" s="10">
-        <v>3174.07</v>
+        <v>3355.48</v>
       </c>
       <c r="F1011" s="9">
-        <v>102.68</v>
+        <v>126.69</v>
       </c>
       <c r="G1011" s="9">
-        <v>132.74</v>
+        <v>151.5</v>
       </c>
       <c r="H1011" s="11">
         <v>3219000</v>
@@ -25478,50 +25478,76 @@
         <v>147</v>
       </c>
       <c r="B1012" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1012" s="8">
-        <v>347537</v>
-      </c>
-      <c r="D1012" s="9">
-        <v>555.75</v>
+        <v>779550</v>
+      </c>
+      <c r="D1012" s="10">
+        <v>1252.92</v>
       </c>
       <c r="E1012" s="10">
-        <v>3456.02</v>
+        <v>3401.92</v>
       </c>
       <c r="F1012" s="9">
-        <v>100.56</v>
+        <v>229.15</v>
       </c>
       <c r="G1012" s="9">
-        <v>118.65</v>
+        <v>279.98</v>
       </c>
       <c r="H1012" s="11">
         <v>3219000</v>
       </c>
     </row>
-    <row r="1013" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A1013" s="7" t="s">
         <v>147</v>
       </c>
       <c r="B1013" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1013" s="8">
+        <v>654761</v>
+      </c>
+      <c r="D1013" s="9">
+        <v>993.59</v>
+      </c>
+      <c r="E1013" s="10">
+        <v>3581.06</v>
+      </c>
+      <c r="F1013" s="9">
+        <v>182.84</v>
+      </c>
+      <c r="G1013" s="9">
+        <v>213.31</v>
+      </c>
+      <c r="H1013" s="11">
+        <v>3219000</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1014" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1014" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C1013" s="8">
-        <v>50053</v>
-      </c>
-      <c r="D1013" s="9">
-        <v>331</v>
-      </c>
-      <c r="E1013" s="9">
-        <v>892.37</v>
-      </c>
-      <c r="F1013" s="9">
-        <v>56.09</v>
-      </c>
-      <c r="G1013" s="9">
-        <v>74.5</v>
-      </c>
-      <c r="H1013" s="11">
+      <c r="C1014" s="8">
+        <v>90542</v>
+      </c>
+      <c r="D1014" s="9">
+        <v>568.5</v>
+      </c>
+      <c r="E1014" s="9">
+        <v>947.89</v>
+      </c>
+      <c r="F1014" s="9">
+        <v>95.52</v>
+      </c>
+      <c r="G1014" s="9">
+        <v>125</v>
+      </c>
+      <c r="H1014" s="11">
         <v>3219000</v>
       </c>
     </row>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -25351,19 +25351,19 @@
         <v>8</v>
       </c>
       <c r="C1007" s="8">
-        <v>559026</v>
-      </c>
-      <c r="D1007" s="9">
-        <v>778.79</v>
+        <v>749929</v>
+      </c>
+      <c r="D1007" s="10">
+        <v>1030.1199999999999</v>
       </c>
       <c r="E1007" s="10">
-        <v>2578.1799999999998</v>
+        <v>2584.1799999999998</v>
       </c>
       <c r="F1007" s="9">
-        <v>216.83</v>
+        <v>290.2</v>
       </c>
       <c r="G1007" s="9">
-        <v>279.73</v>
+        <v>375.81</v>
       </c>
       <c r="H1007" s="11">
         <v>3219000</v>
@@ -25377,19 +25377,19 @@
         <v>9</v>
       </c>
       <c r="C1008" s="8">
-        <v>61540</v>
+        <v>100647</v>
       </c>
       <c r="D1008" s="9">
-        <v>97.25</v>
+        <v>154.25</v>
       </c>
       <c r="E1008" s="10">
-        <v>2414.2800000000002</v>
+        <v>2465.0300000000002</v>
       </c>
       <c r="F1008" s="9">
-        <v>25.49</v>
+        <v>40.83</v>
       </c>
       <c r="G1008" s="9">
-        <v>33.909999999999997</v>
+        <v>54.41</v>
       </c>
       <c r="H1008" s="11">
         <v>3219000</v>
@@ -25403,19 +25403,19 @@
         <v>10</v>
       </c>
       <c r="C1009" s="8">
-        <v>471291</v>
+        <v>646013</v>
       </c>
       <c r="D1009" s="9">
-        <v>710.18</v>
+        <v>961.13</v>
       </c>
       <c r="E1009" s="10">
-        <v>2507.9299999999998</v>
+        <v>2511.81</v>
       </c>
       <c r="F1009" s="9">
-        <v>187.92</v>
+        <v>257.19</v>
       </c>
       <c r="G1009" s="9">
-        <v>255.96</v>
+        <v>348.28</v>
       </c>
       <c r="H1009" s="11">
         <v>3219000</v>
@@ -25429,19 +25429,19 @@
         <v>12</v>
       </c>
       <c r="C1010" s="8">
-        <v>20261</v>
+        <v>32744</v>
       </c>
       <c r="D1010" s="9">
-        <v>135</v>
+        <v>211.5</v>
       </c>
       <c r="E1010" s="9">
-        <v>556.47</v>
+        <v>567.88</v>
       </c>
       <c r="F1010" s="9">
-        <v>36.409999999999997</v>
+        <v>57.66</v>
       </c>
       <c r="G1010" s="9">
-        <v>47.5</v>
+        <v>74.5</v>
       </c>
       <c r="H1010" s="11">
         <v>3219000</v>
@@ -25455,19 +25455,19 @@
         <v>13</v>
       </c>
       <c r="C1011" s="8">
-        <v>425106</v>
-      </c>
-      <c r="D1011" s="9">
-        <v>626.59</v>
+        <v>682312</v>
+      </c>
+      <c r="D1011" s="10">
+        <v>1010.52</v>
       </c>
       <c r="E1011" s="10">
-        <v>3355.48</v>
+        <v>3406.96</v>
       </c>
       <c r="F1011" s="9">
-        <v>126.69</v>
+        <v>200.27</v>
       </c>
       <c r="G1011" s="9">
-        <v>151.5</v>
+        <v>248.48</v>
       </c>
       <c r="H1011" s="11">
         <v>3219000</v>
@@ -25481,19 +25481,19 @@
         <v>7</v>
       </c>
       <c r="C1012" s="8">
-        <v>779550</v>
+        <v>1060073</v>
       </c>
       <c r="D1012" s="10">
-        <v>1252.92</v>
+        <v>1639.59</v>
       </c>
       <c r="E1012" s="10">
-        <v>3401.92</v>
+        <v>3429.77</v>
       </c>
       <c r="F1012" s="9">
-        <v>229.15</v>
+        <v>309.08</v>
       </c>
       <c r="G1012" s="9">
-        <v>279.98</v>
+        <v>374.65</v>
       </c>
       <c r="H1012" s="11">
         <v>3219000</v>
@@ -25507,19 +25507,19 @@
         <v>11</v>
       </c>
       <c r="C1013" s="8">
-        <v>654761</v>
-      </c>
-      <c r="D1013" s="9">
-        <v>993.59</v>
+        <v>1010634</v>
+      </c>
+      <c r="D1013" s="10">
+        <v>1513.42</v>
       </c>
       <c r="E1013" s="10">
-        <v>3581.06</v>
+        <v>3538.51</v>
       </c>
       <c r="F1013" s="9">
-        <v>182.84</v>
+        <v>285.61</v>
       </c>
       <c r="G1013" s="9">
-        <v>213.31</v>
+        <v>335.48</v>
       </c>
       <c r="H1013" s="11">
         <v>3219000</v>
@@ -25533,19 +25533,19 @@
         <v>136</v>
       </c>
       <c r="C1014" s="8">
-        <v>90542</v>
+        <v>126514</v>
       </c>
       <c r="D1014" s="9">
-        <v>568.5</v>
+        <v>791.41</v>
       </c>
       <c r="E1014" s="9">
-        <v>947.89</v>
+        <v>976.19</v>
       </c>
       <c r="F1014" s="9">
-        <v>95.52</v>
+        <v>129.6</v>
       </c>
       <c r="G1014" s="9">
-        <v>125</v>
+        <v>172.59</v>
       </c>
       <c r="H1014" s="11">
         <v>3219000</v>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="149">
   <si>
     <t>Месяц</t>
   </si>
@@ -473,6 +473,9 @@
   <si>
     <t>01.12.2022</t>
   </si>
+  <si>
+    <t>01.01.2023</t>
+  </si>
 </sst>
 </file>
 
@@ -856,10 +859,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1014"/>
+  <dimension ref="A1:H1022"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="A1007" sqref="A1007:G1014"/>
+      <selection activeCell="B1016" sqref="B1016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25351,19 +25354,19 @@
         <v>8</v>
       </c>
       <c r="C1007" s="8">
-        <v>749929</v>
+        <v>771207</v>
       </c>
       <c r="D1007" s="10">
-        <v>1030.1199999999999</v>
+        <v>1065.1199999999999</v>
       </c>
       <c r="E1007" s="10">
-        <v>2584.1799999999998</v>
+        <v>2581.88</v>
       </c>
       <c r="F1007" s="9">
-        <v>290.2</v>
+        <v>298.7</v>
       </c>
       <c r="G1007" s="9">
-        <v>375.81</v>
+        <v>388.48</v>
       </c>
       <c r="H1007" s="11">
         <v>3219000</v>
@@ -25403,19 +25406,19 @@
         <v>10</v>
       </c>
       <c r="C1009" s="8">
-        <v>646013</v>
+        <v>665053</v>
       </c>
       <c r="D1009" s="9">
-        <v>961.13</v>
+        <v>995.63</v>
       </c>
       <c r="E1009" s="10">
         <v>2511.81</v>
       </c>
       <c r="F1009" s="9">
-        <v>257.19</v>
+        <v>264.77</v>
       </c>
       <c r="G1009" s="9">
-        <v>348.28</v>
+        <v>360.28</v>
       </c>
       <c r="H1009" s="11">
         <v>3219000</v>
@@ -25455,19 +25458,19 @@
         <v>13</v>
       </c>
       <c r="C1011" s="8">
-        <v>682312</v>
+        <v>779566</v>
       </c>
       <c r="D1011" s="10">
-        <v>1010.52</v>
+        <v>1170.52</v>
       </c>
       <c r="E1011" s="10">
-        <v>3406.96</v>
+        <v>3417.5</v>
       </c>
       <c r="F1011" s="9">
-        <v>200.27</v>
+        <v>228.11</v>
       </c>
       <c r="G1011" s="9">
-        <v>248.48</v>
+        <v>282.48</v>
       </c>
       <c r="H1011" s="11">
         <v>3219000</v>
@@ -25481,19 +25484,19 @@
         <v>7</v>
       </c>
       <c r="C1012" s="8">
-        <v>1060073</v>
+        <v>1207385</v>
       </c>
       <c r="D1012" s="10">
-        <v>1639.59</v>
+        <v>1849.51</v>
       </c>
       <c r="E1012" s="10">
-        <v>3429.77</v>
+        <v>3472.69</v>
       </c>
       <c r="F1012" s="9">
-        <v>309.08</v>
+        <v>347.68</v>
       </c>
       <c r="G1012" s="9">
-        <v>374.65</v>
+        <v>419.13</v>
       </c>
       <c r="H1012" s="11">
         <v>3219000</v>
@@ -25507,19 +25510,19 @@
         <v>11</v>
       </c>
       <c r="C1013" s="8">
-        <v>1010634</v>
+        <v>1171176</v>
       </c>
       <c r="D1013" s="10">
-        <v>1513.42</v>
+        <v>1743.34</v>
       </c>
       <c r="E1013" s="10">
-        <v>3538.51</v>
+        <v>3572.95</v>
       </c>
       <c r="F1013" s="9">
-        <v>285.61</v>
+        <v>327.79</v>
       </c>
       <c r="G1013" s="9">
-        <v>335.48</v>
+        <v>384.46</v>
       </c>
       <c r="H1013" s="11">
         <v>3219000</v>
@@ -25533,24 +25536,182 @@
         <v>136</v>
       </c>
       <c r="C1014" s="8">
-        <v>126514</v>
+        <v>136522</v>
       </c>
       <c r="D1014" s="9">
-        <v>791.41</v>
+        <v>873.41</v>
       </c>
       <c r="E1014" s="9">
-        <v>976.19</v>
+        <v>951.31</v>
       </c>
       <c r="F1014" s="9">
-        <v>129.6</v>
+        <v>143.51</v>
       </c>
       <c r="G1014" s="9">
-        <v>172.59</v>
+        <v>189.99</v>
       </c>
       <c r="H1014" s="11">
         <v>3219000</v>
       </c>
     </row>
+    <row r="1015" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1015" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1015" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1015" s="8">
+        <v>226281</v>
+      </c>
+      <c r="D1015" s="9">
+        <v>305</v>
+      </c>
+      <c r="E1015" s="10">
+        <v>2520.11</v>
+      </c>
+      <c r="F1015" s="9">
+        <v>89.79</v>
+      </c>
+      <c r="G1015" s="9">
+        <v>117.66</v>
+      </c>
+      <c r="H1015" s="11">
+        <v>3303000</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1016" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1016" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1016" s="8">
+        <v>112728</v>
+      </c>
+      <c r="D1016" s="9">
+        <v>201.5</v>
+      </c>
+      <c r="E1016" s="10">
+        <v>2034.07</v>
+      </c>
+      <c r="F1016" s="9">
+        <v>55.42</v>
+      </c>
+      <c r="G1016" s="9">
+        <v>71.17</v>
+      </c>
+      <c r="H1016" s="11">
+        <v>3303000</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1017" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1017" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1017" s="8">
+        <v>420758</v>
+      </c>
+      <c r="D1017" s="9">
+        <v>673.86</v>
+      </c>
+      <c r="E1017" s="10">
+        <v>3544.72</v>
+      </c>
+      <c r="F1017" s="9">
+        <v>118.7</v>
+      </c>
+      <c r="G1017" s="9">
+        <v>153.41</v>
+      </c>
+      <c r="H1017" s="11">
+        <v>3303000</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1018" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1018" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1018" s="8">
+        <v>436899</v>
+      </c>
+      <c r="D1018" s="9">
+        <v>687.92</v>
+      </c>
+      <c r="E1018" s="10">
+        <v>3608.05</v>
+      </c>
+      <c r="F1018" s="9">
+        <v>121.09</v>
+      </c>
+      <c r="G1018" s="9">
+        <v>152.97999999999999</v>
+      </c>
+      <c r="H1018" s="11">
+        <v>3303000</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1019" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1019" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1019" s="8">
+        <v>515771</v>
+      </c>
+      <c r="D1019" s="9">
+        <v>700</v>
+      </c>
+      <c r="E1019" s="10">
+        <v>3816.85</v>
+      </c>
+      <c r="F1019" s="9">
+        <v>135.13</v>
+      </c>
+      <c r="G1019" s="9">
+        <v>157</v>
+      </c>
+      <c r="H1019" s="11">
+        <v>3303000</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1020" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1020" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1020" s="8">
+        <v>52604</v>
+      </c>
+      <c r="D1020" s="9">
+        <v>335</v>
+      </c>
+      <c r="E1020" s="9">
+        <v>936.35</v>
+      </c>
+      <c r="F1020" s="9">
+        <v>56.18</v>
+      </c>
+      <c r="G1020" s="9">
+        <v>71</v>
+      </c>
+      <c r="H1020" s="11">
+        <v>3303000</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:8" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="1022" spans="1:8" ht="11.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:G948"/>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0" footer="0"/>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="149">
   <si>
     <t>Месяц</t>
   </si>
@@ -862,7 +862,7 @@
   <dimension ref="A1:H1022"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="B1016" sqref="B1016"/>
+      <selection activeCell="D1016" sqref="D1016"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25562,19 +25562,19 @@
         <v>8</v>
       </c>
       <c r="C1015" s="8">
-        <v>226281</v>
+        <v>272703</v>
       </c>
       <c r="D1015" s="9">
-        <v>305</v>
+        <v>384</v>
       </c>
       <c r="E1015" s="10">
-        <v>2520.11</v>
+        <v>2498.88</v>
       </c>
       <c r="F1015" s="9">
-        <v>89.79</v>
+        <v>109.13</v>
       </c>
       <c r="G1015" s="9">
-        <v>117.66</v>
+        <v>145.49</v>
       </c>
       <c r="H1015" s="11">
         <v>3303000</v>
@@ -25588,19 +25588,19 @@
         <v>10</v>
       </c>
       <c r="C1016" s="8">
-        <v>112728</v>
+        <v>145476</v>
       </c>
       <c r="D1016" s="9">
-        <v>201.5</v>
+        <v>253.5</v>
       </c>
       <c r="E1016" s="10">
-        <v>2034.07</v>
+        <v>2125.91</v>
       </c>
       <c r="F1016" s="9">
-        <v>55.42</v>
+        <v>68.430000000000007</v>
       </c>
       <c r="G1016" s="9">
-        <v>71.17</v>
+        <v>89.5</v>
       </c>
       <c r="H1016" s="11">
         <v>3303000</v>
@@ -25611,22 +25611,22 @@
         <v>148</v>
       </c>
       <c r="B1017" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1017" s="8">
-        <v>420758</v>
+        <v>9130</v>
       </c>
       <c r="D1017" s="9">
-        <v>673.86</v>
-      </c>
-      <c r="E1017" s="10">
-        <v>3544.72</v>
+        <v>66.5</v>
+      </c>
+      <c r="E1017" s="9">
+        <v>524.11</v>
       </c>
       <c r="F1017" s="9">
-        <v>118.7</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="G1017" s="9">
-        <v>153.41</v>
+        <v>23.67</v>
       </c>
       <c r="H1017" s="11">
         <v>3303000</v>
@@ -25637,22 +25637,22 @@
         <v>148</v>
       </c>
       <c r="B1018" s="7" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C1018" s="8">
-        <v>436899</v>
+        <v>549525</v>
       </c>
       <c r="D1018" s="9">
-        <v>687.92</v>
+        <v>886.61</v>
       </c>
       <c r="E1018" s="10">
-        <v>3608.05</v>
+        <v>3566.72</v>
       </c>
       <c r="F1018" s="9">
-        <v>121.09</v>
+        <v>154.07</v>
       </c>
       <c r="G1018" s="9">
-        <v>152.97999999999999</v>
+        <v>202.16</v>
       </c>
       <c r="H1018" s="11">
         <v>3303000</v>
@@ -25663,22 +25663,22 @@
         <v>148</v>
       </c>
       <c r="B1019" s="7" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1019" s="8">
-        <v>515771</v>
+        <v>550371</v>
       </c>
       <c r="D1019" s="9">
-        <v>700</v>
+        <v>837.25</v>
       </c>
       <c r="E1019" s="10">
-        <v>3816.85</v>
+        <v>3631.37</v>
       </c>
       <c r="F1019" s="9">
-        <v>135.13</v>
+        <v>151.56</v>
       </c>
       <c r="G1019" s="9">
-        <v>157</v>
+        <v>188.31</v>
       </c>
       <c r="H1019" s="11">
         <v>3303000</v>
@@ -25689,28 +25689,53 @@
         <v>148</v>
       </c>
       <c r="B1020" s="7" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="C1020" s="8">
-        <v>52604</v>
+        <v>614807</v>
       </c>
       <c r="D1020" s="9">
-        <v>335</v>
-      </c>
-      <c r="E1020" s="9">
-        <v>936.35</v>
+        <v>834.33</v>
+      </c>
+      <c r="E1020" s="10">
+        <v>3766.74</v>
       </c>
       <c r="F1020" s="9">
-        <v>56.18</v>
+        <v>163.22</v>
       </c>
       <c r="G1020" s="9">
-        <v>71</v>
+        <v>190.67</v>
       </c>
       <c r="H1020" s="11">
         <v>3303000</v>
       </c>
     </row>
-    <row r="1021" spans="1:8" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="1021" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1021" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1021" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1021" s="8">
+        <v>73440</v>
+      </c>
+      <c r="D1021" s="9">
+        <v>450</v>
+      </c>
+      <c r="E1021" s="9">
+        <v>996.07</v>
+      </c>
+      <c r="F1021" s="9">
+        <v>73.73</v>
+      </c>
+      <c r="G1021" s="9">
+        <v>95.5</v>
+      </c>
+      <c r="H1021" s="11">
+        <v>3303000</v>
+      </c>
+    </row>
     <row r="1022" spans="1:8" ht="11.25" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:G948"/>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -862,7 +862,7 @@
   <dimension ref="A1:H1022"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="D1016" sqref="D1016"/>
+      <selection activeCell="A1015" sqref="A1015:G1021"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25562,19 +25562,19 @@
         <v>8</v>
       </c>
       <c r="C1015" s="8">
-        <v>272703</v>
+        <v>350617</v>
       </c>
       <c r="D1015" s="9">
-        <v>384</v>
+        <v>513.95000000000005</v>
       </c>
       <c r="E1015" s="10">
-        <v>2498.88</v>
+        <v>2409.5700000000002</v>
       </c>
       <c r="F1015" s="9">
-        <v>109.13</v>
+        <v>145.51</v>
       </c>
       <c r="G1015" s="9">
-        <v>145.49</v>
+        <v>191.81</v>
       </c>
       <c r="H1015" s="11">
         <v>3303000</v>
@@ -25588,19 +25588,19 @@
         <v>10</v>
       </c>
       <c r="C1016" s="8">
-        <v>145476</v>
+        <v>244106</v>
       </c>
       <c r="D1016" s="9">
-        <v>253.5</v>
+        <v>395</v>
       </c>
       <c r="E1016" s="10">
-        <v>2125.91</v>
+        <v>2287.9899999999998</v>
       </c>
       <c r="F1016" s="9">
-        <v>68.430000000000007</v>
+        <v>106.69</v>
       </c>
       <c r="G1016" s="9">
-        <v>89.5</v>
+        <v>139.66999999999999</v>
       </c>
       <c r="H1016" s="11">
         <v>3303000</v>
@@ -25614,19 +25614,19 @@
         <v>12</v>
       </c>
       <c r="C1017" s="8">
-        <v>9130</v>
+        <v>10870</v>
       </c>
       <c r="D1017" s="9">
-        <v>66.5</v>
+        <v>79.5</v>
       </c>
       <c r="E1017" s="9">
-        <v>524.11</v>
+        <v>534.41</v>
       </c>
       <c r="F1017" s="9">
-        <v>17.420000000000002</v>
+        <v>20.34</v>
       </c>
       <c r="G1017" s="9">
-        <v>23.67</v>
+        <v>28</v>
       </c>
       <c r="H1017" s="11">
         <v>3303000</v>
@@ -25640,19 +25640,19 @@
         <v>13</v>
       </c>
       <c r="C1018" s="8">
-        <v>549525</v>
-      </c>
-      <c r="D1018" s="9">
-        <v>886.61</v>
+        <v>761044</v>
+      </c>
+      <c r="D1018" s="10">
+        <v>1287.45</v>
       </c>
       <c r="E1018" s="10">
-        <v>3566.72</v>
+        <v>3484.95</v>
       </c>
       <c r="F1018" s="9">
-        <v>154.07</v>
+        <v>218.38</v>
       </c>
       <c r="G1018" s="9">
-        <v>202.16</v>
+        <v>287.32</v>
       </c>
       <c r="H1018" s="11">
         <v>3303000</v>
@@ -25666,19 +25666,19 @@
         <v>7</v>
       </c>
       <c r="C1019" s="8">
-        <v>550371</v>
-      </c>
-      <c r="D1019" s="9">
-        <v>837.25</v>
+        <v>841950</v>
+      </c>
+      <c r="D1019" s="10">
+        <v>1295.0899999999999</v>
       </c>
       <c r="E1019" s="10">
-        <v>3631.37</v>
+        <v>3583.99</v>
       </c>
       <c r="F1019" s="9">
-        <v>151.56</v>
+        <v>234.92</v>
       </c>
       <c r="G1019" s="9">
-        <v>188.31</v>
+        <v>290.14</v>
       </c>
       <c r="H1019" s="11">
         <v>3303000</v>
@@ -25692,19 +25692,19 @@
         <v>11</v>
       </c>
       <c r="C1020" s="8">
-        <v>614807</v>
-      </c>
-      <c r="D1020" s="9">
-        <v>834.33</v>
+        <v>926855</v>
+      </c>
+      <c r="D1020" s="10">
+        <v>1279.42</v>
       </c>
       <c r="E1020" s="10">
-        <v>3766.74</v>
+        <v>3741.09</v>
       </c>
       <c r="F1020" s="9">
-        <v>163.22</v>
+        <v>247.75</v>
       </c>
       <c r="G1020" s="9">
-        <v>190.67</v>
+        <v>288.98</v>
       </c>
       <c r="H1020" s="11">
         <v>3303000</v>
@@ -25718,19 +25718,19 @@
         <v>136</v>
       </c>
       <c r="C1021" s="8">
-        <v>73440</v>
+        <v>129350</v>
       </c>
       <c r="D1021" s="9">
-        <v>450</v>
-      </c>
-      <c r="E1021" s="9">
-        <v>996.07</v>
+        <v>786.67</v>
+      </c>
+      <c r="E1021" s="10">
+        <v>1029.53</v>
       </c>
       <c r="F1021" s="9">
-        <v>73.73</v>
+        <v>125.64</v>
       </c>
       <c r="G1021" s="9">
-        <v>95.5</v>
+        <v>167.83</v>
       </c>
       <c r="H1021" s="11">
         <v>3303000</v>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2048" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="150">
   <si>
     <t>Месяц</t>
   </si>
@@ -476,6 +476,9 @@
   <si>
     <t>01.01.2023</t>
   </si>
+  <si>
+    <t>01.02.2023</t>
+  </si>
 </sst>
 </file>
 
@@ -859,10 +862,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1022"/>
+  <dimension ref="A1:H1028"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="A1015" sqref="A1015:G1021"/>
+      <selection activeCell="A1029" sqref="A1029"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25736,7 +25739,188 @@
         <v>3303000</v>
       </c>
     </row>
-    <row r="1022" spans="1:8" ht="11.25" x14ac:dyDescent="0.2"/>
+    <row r="1022" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1022" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1022" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1022" s="8">
+        <v>184029</v>
+      </c>
+      <c r="D1022" s="9">
+        <v>269</v>
+      </c>
+      <c r="E1022" s="10">
+        <v>2588.31</v>
+      </c>
+      <c r="F1022" s="9">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="G1022" s="9">
+        <v>95.18</v>
+      </c>
+      <c r="H1022" s="11">
+        <v>3807000</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1023" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1023" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1023" s="8">
+        <v>100542</v>
+      </c>
+      <c r="D1023" s="9">
+        <v>157.5</v>
+      </c>
+      <c r="E1023" s="10">
+        <v>2520.48</v>
+      </c>
+      <c r="F1023" s="9">
+        <v>39.89</v>
+      </c>
+      <c r="G1023" s="9">
+        <v>55.5</v>
+      </c>
+      <c r="H1023" s="11">
+        <v>3807000</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1024" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1024" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1024" s="8">
+        <v>14458</v>
+      </c>
+      <c r="D1024" s="9">
+        <v>77.66</v>
+      </c>
+      <c r="E1024" s="9">
+        <v>532.13</v>
+      </c>
+      <c r="F1024" s="9">
+        <v>27.17</v>
+      </c>
+      <c r="G1024" s="9">
+        <v>35</v>
+      </c>
+      <c r="H1024" s="11">
+        <v>3807000</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1025" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1025" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1025" s="8">
+        <v>298987</v>
+      </c>
+      <c r="D1025" s="9">
+        <v>495.09</v>
+      </c>
+      <c r="E1025" s="10">
+        <v>3487.14</v>
+      </c>
+      <c r="F1025" s="9">
+        <v>85.74</v>
+      </c>
+      <c r="G1025" s="9">
+        <v>112.31</v>
+      </c>
+      <c r="H1025" s="11">
+        <v>3807000</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1026" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1026" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1026" s="8">
+        <v>277700</v>
+      </c>
+      <c r="D1026" s="9">
+        <v>432.33</v>
+      </c>
+      <c r="E1026" s="10">
+        <v>3464.32</v>
+      </c>
+      <c r="F1026" s="9">
+        <v>80.16</v>
+      </c>
+      <c r="G1026" s="9">
+        <v>101.5</v>
+      </c>
+      <c r="H1026" s="11">
+        <v>3807000</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1027" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1027" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1027" s="8">
+        <v>293454</v>
+      </c>
+      <c r="D1027" s="9">
+        <v>396.83</v>
+      </c>
+      <c r="E1027" s="10">
+        <v>3601.99</v>
+      </c>
+      <c r="F1027" s="9">
+        <v>81.47</v>
+      </c>
+      <c r="G1027" s="9">
+        <v>97.67</v>
+      </c>
+      <c r="H1027" s="11">
+        <v>3807000</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1028" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1028" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1028" s="8">
+        <v>30726</v>
+      </c>
+      <c r="D1028" s="9">
+        <v>109</v>
+      </c>
+      <c r="E1028" s="9">
+        <v>993.4</v>
+      </c>
+      <c r="F1028" s="9">
+        <v>30.93</v>
+      </c>
+      <c r="G1028" s="9">
+        <v>38</v>
+      </c>
+      <c r="H1028" s="11">
+        <v>3807000</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G948"/>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0" footer="0"/>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -865,7 +865,7 @@
   <dimension ref="A1:H1028"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="A1029" sqref="A1029"/>
+      <selection activeCell="A1022" sqref="A1022:G1028"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25747,19 +25747,19 @@
         <v>8</v>
       </c>
       <c r="C1022" s="8">
-        <v>184029</v>
+        <v>569364</v>
       </c>
       <c r="D1022" s="9">
-        <v>269</v>
+        <v>830.28</v>
       </c>
       <c r="E1022" s="10">
-        <v>2588.31</v>
+        <v>2546.58</v>
       </c>
       <c r="F1022" s="9">
-        <v>71.099999999999994</v>
+        <v>223.58</v>
       </c>
       <c r="G1022" s="9">
-        <v>95.18</v>
+        <v>295.82</v>
       </c>
       <c r="H1022" s="11">
         <v>3807000</v>
@@ -25773,19 +25773,19 @@
         <v>10</v>
       </c>
       <c r="C1023" s="8">
-        <v>100542</v>
+        <v>263244</v>
       </c>
       <c r="D1023" s="9">
-        <v>157.5</v>
+        <v>448.95</v>
       </c>
       <c r="E1023" s="10">
-        <v>2520.48</v>
+        <v>2208.79</v>
       </c>
       <c r="F1023" s="9">
-        <v>39.89</v>
+        <v>119.18</v>
       </c>
       <c r="G1023" s="9">
-        <v>55.5</v>
+        <v>158.13999999999999</v>
       </c>
       <c r="H1023" s="11">
         <v>3807000</v>
@@ -25799,19 +25799,19 @@
         <v>12</v>
       </c>
       <c r="C1024" s="8">
-        <v>14458</v>
+        <v>22648</v>
       </c>
       <c r="D1024" s="9">
-        <v>77.66</v>
+        <v>130.66</v>
       </c>
       <c r="E1024" s="9">
-        <v>532.13</v>
+        <v>496.78</v>
       </c>
       <c r="F1024" s="9">
-        <v>27.17</v>
+        <v>45.59</v>
       </c>
       <c r="G1024" s="9">
-        <v>35</v>
+        <v>58.5</v>
       </c>
       <c r="H1024" s="11">
         <v>3807000</v>
@@ -25825,19 +25825,19 @@
         <v>13</v>
       </c>
       <c r="C1025" s="8">
-        <v>298987</v>
-      </c>
-      <c r="D1025" s="9">
-        <v>495.09</v>
+        <v>685567</v>
+      </c>
+      <c r="D1025" s="10">
+        <v>1155</v>
       </c>
       <c r="E1025" s="10">
-        <v>3487.14</v>
+        <v>3272.86</v>
       </c>
       <c r="F1025" s="9">
-        <v>85.74</v>
+        <v>209.47</v>
       </c>
       <c r="G1025" s="9">
-        <v>112.31</v>
+        <v>278.3</v>
       </c>
       <c r="H1025" s="11">
         <v>3807000</v>
@@ -25851,19 +25851,19 @@
         <v>7</v>
       </c>
       <c r="C1026" s="8">
-        <v>277700</v>
-      </c>
-      <c r="D1026" s="9">
-        <v>432.33</v>
+        <v>925469</v>
+      </c>
+      <c r="D1026" s="10">
+        <v>1370.67</v>
       </c>
       <c r="E1026" s="10">
-        <v>3464.32</v>
+        <v>3585.14</v>
       </c>
       <c r="F1026" s="9">
-        <v>80.16</v>
+        <v>258.14</v>
       </c>
       <c r="G1026" s="9">
-        <v>101.5</v>
+        <v>312.5</v>
       </c>
       <c r="H1026" s="11">
         <v>3807000</v>
@@ -25877,19 +25877,19 @@
         <v>11</v>
       </c>
       <c r="C1027" s="8">
-        <v>293454</v>
-      </c>
-      <c r="D1027" s="9">
-        <v>396.83</v>
+        <v>821946</v>
+      </c>
+      <c r="D1027" s="10">
+        <v>1254.92</v>
       </c>
       <c r="E1027" s="10">
-        <v>3601.99</v>
+        <v>3402.8</v>
       </c>
       <c r="F1027" s="9">
-        <v>81.47</v>
+        <v>241.55</v>
       </c>
       <c r="G1027" s="9">
-        <v>97.67</v>
+        <v>302.48</v>
       </c>
       <c r="H1027" s="11">
         <v>3807000</v>
@@ -25903,19 +25903,19 @@
         <v>136</v>
       </c>
       <c r="C1028" s="8">
-        <v>30726</v>
+        <v>122768</v>
       </c>
       <c r="D1028" s="9">
-        <v>109</v>
-      </c>
-      <c r="E1028" s="9">
-        <v>993.4</v>
+        <v>530.92999999999995</v>
+      </c>
+      <c r="E1028" s="10">
+        <v>1023.49</v>
       </c>
       <c r="F1028" s="9">
-        <v>30.93</v>
+        <v>119.95</v>
       </c>
       <c r="G1028" s="9">
-        <v>38</v>
+        <v>149.47999999999999</v>
       </c>
       <c r="H1028" s="11">
         <v>3807000</v>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="151">
   <si>
     <t>Месяц</t>
   </si>
@@ -479,6 +479,9 @@
   <si>
     <t>01.02.2023</t>
   </si>
+  <si>
+    <t>01.03.2023</t>
+  </si>
 </sst>
 </file>
 
@@ -862,10 +865,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1028"/>
+  <dimension ref="A1:H1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A982" workbookViewId="0">
-      <selection activeCell="A1022" sqref="A1022:G1028"/>
+    <sheetView tabSelected="1" topLeftCell="A997" workbookViewId="0">
+      <selection activeCell="A1029" sqref="A1029:G1034"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -25919,6 +25922,162 @@
       </c>
       <c r="H1028" s="11">
         <v>3807000</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1029" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1029" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1029" s="8">
+        <v>723963</v>
+      </c>
+      <c r="D1029" s="10">
+        <v>1035.4000000000001</v>
+      </c>
+      <c r="E1029" s="10">
+        <v>2595.31</v>
+      </c>
+      <c r="F1029" s="9">
+        <v>278.95</v>
+      </c>
+      <c r="G1029" s="9">
+        <v>366.96</v>
+      </c>
+      <c r="H1029" s="11">
+        <v>3434500</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1030" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1030" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1030" s="8">
+        <v>314663</v>
+      </c>
+      <c r="D1030" s="9">
+        <v>532.45000000000005</v>
+      </c>
+      <c r="E1030" s="10">
+        <v>2248.7199999999998</v>
+      </c>
+      <c r="F1030" s="9">
+        <v>139.93</v>
+      </c>
+      <c r="G1030" s="9">
+        <v>188.48</v>
+      </c>
+      <c r="H1030" s="11">
+        <v>3434500</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1031" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1031" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1031" s="8">
+        <v>33895</v>
+      </c>
+      <c r="D1031" s="9">
+        <v>231.5</v>
+      </c>
+      <c r="E1031" s="9">
+        <v>535.97</v>
+      </c>
+      <c r="F1031" s="9">
+        <v>63.24</v>
+      </c>
+      <c r="G1031" s="9">
+        <v>79</v>
+      </c>
+      <c r="H1031" s="11">
+        <v>3434500</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1032" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1032" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1032" s="8">
+        <v>589673</v>
+      </c>
+      <c r="D1032" s="9">
+        <v>922.5</v>
+      </c>
+      <c r="E1032" s="10">
+        <v>3542.22</v>
+      </c>
+      <c r="F1032" s="9">
+        <v>166.47</v>
+      </c>
+      <c r="G1032" s="9">
+        <v>196</v>
+      </c>
+      <c r="H1032" s="11">
+        <v>3434500</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1033" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1033" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1033" s="8">
+        <v>834517</v>
+      </c>
+      <c r="D1033" s="10">
+        <v>1558.68</v>
+      </c>
+      <c r="E1033" s="10">
+        <v>3404.25</v>
+      </c>
+      <c r="F1033" s="9">
+        <v>245.14</v>
+      </c>
+      <c r="G1033" s="9">
+        <v>333.56</v>
+      </c>
+      <c r="H1033" s="11">
+        <v>3434500</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1034" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1034" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1034" s="8">
+        <v>257635</v>
+      </c>
+      <c r="D1034" s="10">
+        <v>1419.84</v>
+      </c>
+      <c r="E1034" s="10">
+        <v>1028.3599999999999</v>
+      </c>
+      <c r="F1034" s="9">
+        <v>250.53</v>
+      </c>
+      <c r="G1034" s="9">
+        <v>316</v>
+      </c>
+      <c r="H1034" s="11">
+        <v>3434500</v>
       </c>
     </row>
   </sheetData>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="152">
   <si>
     <t>Месяц</t>
   </si>
@@ -482,6 +482,9 @@
   <si>
     <t>01.03.2023</t>
   </si>
+  <si>
+    <t>01.04.2023</t>
+  </si>
 </sst>
 </file>
 
@@ -865,10 +868,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1034"/>
+  <dimension ref="A1:H1040"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A997" workbookViewId="0">
-      <selection activeCell="A1029" sqref="A1029:G1034"/>
+      <selection activeCell="A1033" sqref="A1033"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26078,6 +26081,162 @@
       </c>
       <c r="H1034" s="11">
         <v>3434500</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1035" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1035" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1035" s="8">
+        <v>88890</v>
+      </c>
+      <c r="D1035" s="9">
+        <v>142.5</v>
+      </c>
+      <c r="E1035" s="10">
+        <v>2296.31</v>
+      </c>
+      <c r="F1035" s="9">
+        <v>38.71</v>
+      </c>
+      <c r="G1035" s="9">
+        <v>50.5</v>
+      </c>
+      <c r="H1035" s="11">
+        <v>2367000</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1036" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1036" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1036" s="8">
+        <v>230647</v>
+      </c>
+      <c r="D1036" s="9">
+        <v>375.25</v>
+      </c>
+      <c r="E1036" s="10">
+        <v>2452.13</v>
+      </c>
+      <c r="F1036" s="9">
+        <v>94.06</v>
+      </c>
+      <c r="G1036" s="9">
+        <v>132.08000000000001</v>
+      </c>
+      <c r="H1036" s="11">
+        <v>2367000</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1037" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1037" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1037" s="8">
+        <v>150517</v>
+      </c>
+      <c r="D1037" s="9">
+        <v>243</v>
+      </c>
+      <c r="E1037" s="10">
+        <v>2536.09</v>
+      </c>
+      <c r="F1037" s="9">
+        <v>59.35</v>
+      </c>
+      <c r="G1037" s="9">
+        <v>86.5</v>
+      </c>
+      <c r="H1037" s="11">
+        <v>2367000</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1038" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1038" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1038" s="8">
+        <v>12368</v>
+      </c>
+      <c r="D1038" s="9">
+        <v>84</v>
+      </c>
+      <c r="E1038" s="9">
+        <v>530.13</v>
+      </c>
+      <c r="F1038" s="9">
+        <v>23.33</v>
+      </c>
+      <c r="G1038" s="9">
+        <v>29.5</v>
+      </c>
+      <c r="H1038" s="11">
+        <v>2367000</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1039" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1039" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1039" s="8">
+        <v>487852</v>
+      </c>
+      <c r="D1039" s="9">
+        <v>916.17</v>
+      </c>
+      <c r="E1039" s="10">
+        <v>3352.01</v>
+      </c>
+      <c r="F1039" s="9">
+        <v>145.54</v>
+      </c>
+      <c r="G1039" s="9">
+        <v>196.33</v>
+      </c>
+      <c r="H1039" s="11">
+        <v>2367000</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1040" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1040" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1040" s="8">
+        <v>121175</v>
+      </c>
+      <c r="D1040" s="9">
+        <v>667.5</v>
+      </c>
+      <c r="E1040" s="10">
+        <v>1114.05</v>
+      </c>
+      <c r="F1040" s="9">
+        <v>108.77</v>
+      </c>
+      <c r="G1040" s="9">
+        <v>142</v>
+      </c>
+      <c r="H1040" s="11">
+        <v>2367000</v>
       </c>
     </row>
   </sheetData>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2086" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="153">
   <si>
     <t>Месяц</t>
   </si>
@@ -485,6 +485,9 @@
   <si>
     <t>01.04.2023</t>
   </si>
+  <si>
+    <t>01.05.2023</t>
+  </si>
 </sst>
 </file>
 
@@ -868,10 +871,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1040"/>
+  <dimension ref="A1:H1045"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A997" workbookViewId="0">
-      <selection activeCell="A1033" sqref="A1033"/>
+    <sheetView tabSelected="1" topLeftCell="A1012" workbookViewId="0">
+      <selection activeCell="A1041" sqref="A1041:G1045"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26117,19 +26120,19 @@
         <v>9</v>
       </c>
       <c r="C1036" s="8">
-        <v>230647</v>
+        <v>310216</v>
       </c>
       <c r="D1036" s="9">
-        <v>375.25</v>
+        <v>495.25</v>
       </c>
       <c r="E1036" s="10">
-        <v>2452.13</v>
+        <v>2460.86</v>
       </c>
       <c r="F1036" s="9">
-        <v>94.06</v>
+        <v>126.06</v>
       </c>
       <c r="G1036" s="9">
-        <v>132.08000000000001</v>
+        <v>174.33</v>
       </c>
       <c r="H1036" s="11">
         <v>2367000</v>
@@ -26169,19 +26172,19 @@
         <v>12</v>
       </c>
       <c r="C1038" s="8">
-        <v>12368</v>
+        <v>19580</v>
       </c>
       <c r="D1038" s="9">
-        <v>84</v>
+        <v>142.5</v>
       </c>
       <c r="E1038" s="9">
-        <v>530.13</v>
+        <v>518.67999999999995</v>
       </c>
       <c r="F1038" s="9">
-        <v>23.33</v>
+        <v>37.75</v>
       </c>
       <c r="G1038" s="9">
-        <v>29.5</v>
+        <v>50</v>
       </c>
       <c r="H1038" s="11">
         <v>2367000</v>
@@ -26195,19 +26198,19 @@
         <v>11</v>
       </c>
       <c r="C1039" s="8">
-        <v>487852</v>
-      </c>
-      <c r="D1039" s="9">
-        <v>916.17</v>
+        <v>566795</v>
+      </c>
+      <c r="D1039" s="10">
+        <v>1099.5</v>
       </c>
       <c r="E1039" s="10">
-        <v>3352.01</v>
+        <v>3284.82</v>
       </c>
       <c r="F1039" s="9">
-        <v>145.54</v>
+        <v>172.55</v>
       </c>
       <c r="G1039" s="9">
-        <v>196.33</v>
+        <v>234.83</v>
       </c>
       <c r="H1039" s="11">
         <v>2367000</v>
@@ -26221,22 +26224,152 @@
         <v>136</v>
       </c>
       <c r="C1040" s="8">
-        <v>121175</v>
+        <v>156914</v>
       </c>
       <c r="D1040" s="9">
-        <v>667.5</v>
+        <v>841.25</v>
       </c>
       <c r="E1040" s="10">
-        <v>1114.05</v>
+        <v>1134.76</v>
       </c>
       <c r="F1040" s="9">
-        <v>108.77</v>
+        <v>138.28</v>
       </c>
       <c r="G1040" s="9">
-        <v>142</v>
+        <v>179.25</v>
       </c>
       <c r="H1040" s="11">
         <v>2367000</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1041" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1041" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1041" s="8">
+        <v>160530</v>
+      </c>
+      <c r="D1041" s="9">
+        <v>273</v>
+      </c>
+      <c r="E1041" s="10">
+        <v>2430.4299999999998</v>
+      </c>
+      <c r="F1041" s="9">
+        <v>66.05</v>
+      </c>
+      <c r="G1041" s="9">
+        <v>99</v>
+      </c>
+      <c r="H1041" s="11">
+        <v>1568000</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1042" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1042" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1042" s="8">
+        <v>9810</v>
+      </c>
+      <c r="D1042" s="9">
+        <v>62.25</v>
+      </c>
+      <c r="E1042" s="9">
+        <v>552.67999999999995</v>
+      </c>
+      <c r="F1042" s="9">
+        <v>17.75</v>
+      </c>
+      <c r="G1042" s="9">
+        <v>21.75</v>
+      </c>
+      <c r="H1042" s="11">
+        <v>1568000</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1043" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1043" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1043" s="8">
+        <v>235645</v>
+      </c>
+      <c r="D1043" s="9">
+        <v>458.91</v>
+      </c>
+      <c r="E1043" s="10">
+        <v>3107.54</v>
+      </c>
+      <c r="F1043" s="9">
+        <v>75.83</v>
+      </c>
+      <c r="G1043" s="9">
+        <v>96.5</v>
+      </c>
+      <c r="H1043" s="11">
+        <v>1568000</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1044" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1044" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1044" s="8">
+        <v>212898</v>
+      </c>
+      <c r="D1044" s="9">
+        <v>381.67</v>
+      </c>
+      <c r="E1044" s="10">
+        <v>3316.68</v>
+      </c>
+      <c r="F1044" s="9">
+        <v>64.19</v>
+      </c>
+      <c r="G1044" s="9">
+        <v>80.83</v>
+      </c>
+      <c r="H1044" s="11">
+        <v>1568000</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1045" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1045" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1045" s="8">
+        <v>67773</v>
+      </c>
+      <c r="D1045" s="9">
+        <v>435.42</v>
+      </c>
+      <c r="E1045" s="9">
+        <v>979.8</v>
+      </c>
+      <c r="F1045" s="9">
+        <v>69.17</v>
+      </c>
+      <c r="G1045" s="9">
+        <v>92.08</v>
+      </c>
+      <c r="H1045" s="11">
+        <v>1568000</v>
       </c>
     </row>
   </sheetData>

--- a/2_stage.xlsx
+++ b/2_stage.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2096" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2136" uniqueCount="156">
   <si>
     <t>Месяц</t>
   </si>
@@ -488,6 +488,15 @@
   <si>
     <t>01.05.2023</t>
   </si>
+  <si>
+    <t>01.06.2023</t>
+  </si>
+  <si>
+    <t>01.07.2023</t>
+  </si>
+  <si>
+    <t>01.08.2023</t>
+  </si>
 </sst>
 </file>
 
@@ -871,10 +880,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H1045"/>
+  <dimension ref="A1:H1065"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1012" workbookViewId="0">
-      <selection activeCell="A1041" sqref="A1041:G1045"/>
+    <sheetView tabSelected="1" topLeftCell="A1030" workbookViewId="0">
+      <selection activeCell="A1066" sqref="A1066"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -26247,22 +26256,22 @@
         <v>152</v>
       </c>
       <c r="B1041" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1041" s="8">
-        <v>160530</v>
+        <v>7276</v>
       </c>
       <c r="D1041" s="9">
-        <v>273</v>
+        <v>15.5</v>
       </c>
       <c r="E1041" s="10">
-        <v>2430.4299999999998</v>
+        <v>2184.98</v>
       </c>
       <c r="F1041" s="9">
-        <v>66.05</v>
+        <v>3.33</v>
       </c>
       <c r="G1041" s="9">
-        <v>99</v>
+        <v>5.67</v>
       </c>
       <c r="H1041" s="11">
         <v>1568000</v>
@@ -26273,22 +26282,22 @@
         <v>152</v>
       </c>
       <c r="B1042" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C1042" s="8">
-        <v>9810</v>
+        <v>309052</v>
       </c>
       <c r="D1042" s="9">
-        <v>62.25</v>
-      </c>
-      <c r="E1042" s="9">
-        <v>552.67999999999995</v>
+        <v>493</v>
+      </c>
+      <c r="E1042" s="10">
+        <v>2527.21</v>
       </c>
       <c r="F1042" s="9">
-        <v>17.75</v>
+        <v>122.29</v>
       </c>
       <c r="G1042" s="9">
-        <v>21.75</v>
+        <v>176.83</v>
       </c>
       <c r="H1042" s="11">
         <v>1568000</v>
@@ -26299,22 +26308,22 @@
         <v>152</v>
       </c>
       <c r="B1043" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1043" s="8">
-        <v>235645</v>
+        <v>9810</v>
       </c>
       <c r="D1043" s="9">
-        <v>458.91</v>
-      </c>
-      <c r="E1043" s="10">
-        <v>3107.54</v>
+        <v>62.25</v>
+      </c>
+      <c r="E1043" s="9">
+        <v>552.67999999999995</v>
       </c>
       <c r="F1043" s="9">
-        <v>75.83</v>
+        <v>17.75</v>
       </c>
       <c r="G1043" s="9">
-        <v>96.5</v>
+        <v>21.75</v>
       </c>
       <c r="H1043" s="11">
         <v>1568000</v>
@@ -26325,22 +26334,22 @@
         <v>152</v>
       </c>
       <c r="B1044" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C1044" s="8">
-        <v>212898</v>
+        <v>391273</v>
       </c>
       <c r="D1044" s="9">
-        <v>381.67</v>
+        <v>778.91</v>
       </c>
       <c r="E1044" s="10">
-        <v>3316.68</v>
+        <v>3118.46</v>
       </c>
       <c r="F1044" s="9">
-        <v>64.19</v>
+        <v>125.47</v>
       </c>
       <c r="G1044" s="9">
-        <v>80.83</v>
+        <v>164.5</v>
       </c>
       <c r="H1044" s="11">
         <v>1568000</v>
@@ -26351,25 +26360,545 @@
         <v>152</v>
       </c>
       <c r="B1045" s="7" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="C1045" s="8">
-        <v>67773</v>
+        <v>227856</v>
       </c>
       <c r="D1045" s="9">
-        <v>435.42</v>
-      </c>
-      <c r="E1045" s="9">
-        <v>979.8</v>
+        <v>414.92</v>
+      </c>
+      <c r="E1045" s="10">
+        <v>3232.46</v>
       </c>
       <c r="F1045" s="9">
-        <v>69.17</v>
+        <v>70.489999999999995</v>
       </c>
       <c r="G1045" s="9">
-        <v>92.08</v>
+        <v>87.48</v>
       </c>
       <c r="H1045" s="11">
         <v>1568000</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1046" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1046" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1046" s="8">
+        <v>316128</v>
+      </c>
+      <c r="D1046" s="9">
+        <v>535</v>
+      </c>
+      <c r="E1046" s="10">
+        <v>3460.25</v>
+      </c>
+      <c r="F1046" s="9">
+        <v>91.36</v>
+      </c>
+      <c r="G1046" s="9">
+        <v>113.5</v>
+      </c>
+      <c r="H1046" s="11">
+        <v>1568000</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1047" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1047" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1047" s="8">
+        <v>131978</v>
+      </c>
+      <c r="D1047" s="9">
+        <v>780</v>
+      </c>
+      <c r="E1047" s="10">
+        <v>1033.82</v>
+      </c>
+      <c r="F1047" s="9">
+        <v>127.66</v>
+      </c>
+      <c r="G1047" s="9">
+        <v>165.5</v>
+      </c>
+      <c r="H1047" s="11">
+        <v>1568000</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1048" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1048" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1048" s="8">
+        <v>343176</v>
+      </c>
+      <c r="D1048" s="9">
+        <v>528.25</v>
+      </c>
+      <c r="E1048" s="10">
+        <v>2471.7399999999998</v>
+      </c>
+      <c r="F1048" s="9">
+        <v>138.84</v>
+      </c>
+      <c r="G1048" s="9">
+        <v>186.58</v>
+      </c>
+      <c r="H1048" s="11">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1049" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1049" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1049" s="8">
+        <v>7287</v>
+      </c>
+      <c r="D1049" s="9">
+        <v>67.5</v>
+      </c>
+      <c r="E1049" s="9">
+        <v>418.31</v>
+      </c>
+      <c r="F1049" s="9">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="G1049" s="9">
+        <v>24</v>
+      </c>
+      <c r="H1049" s="11">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1050" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1050" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1050" s="8">
+        <v>403143</v>
+      </c>
+      <c r="D1050" s="9">
+        <v>838.94</v>
+      </c>
+      <c r="E1050" s="10">
+        <v>3007.63</v>
+      </c>
+      <c r="F1050" s="9">
+        <v>134.04</v>
+      </c>
+      <c r="G1050" s="9">
+        <v>180.99</v>
+      </c>
+      <c r="H1050" s="11">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1051" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1051" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1051" s="8">
+        <v>780150</v>
+      </c>
+      <c r="D1051" s="10">
+        <v>1318.92</v>
+      </c>
+      <c r="E1051" s="10">
+        <v>3459.95</v>
+      </c>
+      <c r="F1051" s="9">
+        <v>225.48</v>
+      </c>
+      <c r="G1051" s="9">
+        <v>279.35000000000002</v>
+      </c>
+      <c r="H1051" s="11">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1052" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1052" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1052" s="8">
+        <v>97486</v>
+      </c>
+      <c r="D1052" s="9">
+        <v>525</v>
+      </c>
+      <c r="E1052" s="10">
+        <v>1098.68</v>
+      </c>
+      <c r="F1052" s="9">
+        <v>88.73</v>
+      </c>
+      <c r="G1052" s="9">
+        <v>111.5</v>
+      </c>
+      <c r="H1052" s="11">
+        <v>2150000</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1053" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1053" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1053" s="8">
+        <v>100937</v>
+      </c>
+      <c r="D1053" s="9">
+        <v>150</v>
+      </c>
+      <c r="E1053" s="10">
+        <v>2497.1999999999998</v>
+      </c>
+      <c r="F1053" s="9">
+        <v>40.42</v>
+      </c>
+      <c r="G1053" s="9">
+        <v>53.5</v>
+      </c>
+      <c r="H1053" s="11">
+        <v>2194000</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1054" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1054" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1054" s="8">
+        <v>292617</v>
+      </c>
+      <c r="D1054" s="9">
+        <v>454</v>
+      </c>
+      <c r="E1054" s="10">
+        <v>2485.4899999999998</v>
+      </c>
+      <c r="F1054" s="9">
+        <v>117.73</v>
+      </c>
+      <c r="G1054" s="9">
+        <v>159.16999999999999</v>
+      </c>
+      <c r="H1054" s="11">
+        <v>2194000</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1055" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1055" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1055" s="8">
+        <v>3726</v>
+      </c>
+      <c r="D1055" s="9">
+        <v>33</v>
+      </c>
+      <c r="E1055" s="9">
+        <v>475.26</v>
+      </c>
+      <c r="F1055" s="9">
+        <v>7.84</v>
+      </c>
+      <c r="G1055" s="9">
+        <v>11.5</v>
+      </c>
+      <c r="H1055" s="11">
+        <v>2194000</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1056" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1056" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1056" s="8">
+        <v>309263</v>
+      </c>
+      <c r="D1056" s="9">
+        <v>629.33000000000004</v>
+      </c>
+      <c r="E1056" s="10">
+        <v>3009.27</v>
+      </c>
+      <c r="F1056" s="9">
+        <v>102.77</v>
+      </c>
+      <c r="G1056" s="9">
+        <v>139.16999999999999</v>
+      </c>
+      <c r="H1056" s="11">
+        <v>2194000</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1057" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1057" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1057" s="8">
+        <v>827655</v>
+      </c>
+      <c r="D1057" s="10">
+        <v>1257.42</v>
+      </c>
+      <c r="E1057" s="10">
+        <v>3555.37</v>
+      </c>
+      <c r="F1057" s="9">
+        <v>232.79</v>
+      </c>
+      <c r="G1057" s="9">
+        <v>274.48</v>
+      </c>
+      <c r="H1057" s="11">
+        <v>2194000</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1058" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1058" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1058" s="8">
+        <v>192985</v>
+      </c>
+      <c r="D1058" s="9">
+        <v>397.5</v>
+      </c>
+      <c r="E1058" s="10">
+        <v>3040.09</v>
+      </c>
+      <c r="F1058" s="9">
+        <v>63.48</v>
+      </c>
+      <c r="G1058" s="9">
+        <v>84.5</v>
+      </c>
+      <c r="H1058" s="11">
+        <v>2194000</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1059" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1059" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1059" s="8">
+        <v>101488</v>
+      </c>
+      <c r="D1059" s="9">
+        <v>586.5</v>
+      </c>
+      <c r="E1059" s="9">
+        <v>983.7</v>
+      </c>
+      <c r="F1059" s="9">
+        <v>103.17</v>
+      </c>
+      <c r="G1059" s="9">
+        <v>127.5</v>
+      </c>
+      <c r="H1059" s="11">
+        <v>2194000</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1060" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1060" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1060" s="8">
+        <v>135851</v>
+      </c>
+      <c r="D1060" s="9">
+        <v>205.5</v>
+      </c>
+      <c r="E1060" s="10">
+        <v>2492.6799999999998</v>
+      </c>
+      <c r="F1060" s="9">
+        <v>54.5</v>
+      </c>
+      <c r="G1060" s="9">
+        <v>72.5</v>
+      </c>
+      <c r="H1060" s="11">
+        <v>2551500</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1061" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1061" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1061" s="8">
+        <v>26707</v>
+      </c>
+      <c r="D1061" s="9">
+        <v>50.67</v>
+      </c>
+      <c r="E1061" s="10">
+        <v>2524.29</v>
+      </c>
+      <c r="F1061" s="9">
+        <v>10.58</v>
+      </c>
+      <c r="G1061" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="H1061" s="11">
+        <v>2551500</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1062" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1062" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1062" s="8">
+        <v>14740</v>
+      </c>
+      <c r="D1062" s="9">
+        <v>109.67</v>
+      </c>
+      <c r="E1062" s="9">
+        <v>462.94</v>
+      </c>
+      <c r="F1062" s="9">
+        <v>31.84</v>
+      </c>
+      <c r="G1062" s="9">
+        <v>39.33</v>
+      </c>
+      <c r="H1062" s="11">
+        <v>2551500</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1063" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1063" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1063" s="8">
+        <v>180553</v>
+      </c>
+      <c r="D1063" s="9">
+        <v>385</v>
+      </c>
+      <c r="E1063" s="10">
+        <v>2767.52</v>
+      </c>
+      <c r="F1063" s="9">
+        <v>65.239999999999995</v>
+      </c>
+      <c r="G1063" s="9">
+        <v>89.5</v>
+      </c>
+      <c r="H1063" s="11">
+        <v>2551500</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1064" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1064" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1064" s="8">
+        <v>150925</v>
+      </c>
+      <c r="D1064" s="9">
+        <v>298.33</v>
+      </c>
+      <c r="E1064" s="10">
+        <v>3096.53</v>
+      </c>
+      <c r="F1064" s="9">
+        <v>48.74</v>
+      </c>
+      <c r="G1064" s="9">
+        <v>63.17</v>
+      </c>
+      <c r="H1064" s="11">
+        <v>2551500</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:8" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="A1065" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1065" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1065" s="8">
+        <v>46016</v>
+      </c>
+      <c r="D1065" s="9">
+        <v>253</v>
+      </c>
+      <c r="E1065" s="10">
+        <v>1024.4000000000001</v>
+      </c>
+      <c r="F1065" s="9">
+        <v>44.92</v>
+      </c>
+      <c r="G1065" s="9">
+        <v>57.5</v>
+      </c>
+      <c r="H1065" s="11">
+        <v>2551500</v>
       </c>
     </row>
   </sheetData>
